--- a/input_data/data_errors_04/cenarios.xlsx
+++ b/input_data/data_errors_04/cenarios.xlsx
@@ -1,73 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="descricao"/>
+    <sheet name="descricao" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>nome</t>
+    <t xml:space="preserve">nome</t>
   </si>
   <si>
-    <t>descricao</t>
+    <t xml:space="preserve">descricao</t>
   </si>
   <si>
-    <t>simbolo</t>
+    <t xml:space="preserve">simbolo</t>
   </si>
   <si>
-    <t>Otimista</t>
+    <t xml:space="preserve">COLUNA _A</t>
   </si>
   <si>
-    <t>Este cenário representa uma visão mais otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
+    <t xml:space="preserve">Otimista|</t>
   </si>
   <si>
-    <t>O</t>
+    <t xml:space="preserve">Este cenário representa uma visão mais 
+otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
   </si>
   <si>
-    <t>Pessimista</t>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t>Este cenário representa uma visão mais pessimista, sendo baseado em um maior crescimento populacional, maior desmatamento, maior consumo etc.</t>
+    <t xml:space="preserve">Pessimista</t>
   </si>
   <si>
-    <t>P</t>
+    <t xml:space="preserve">Este cenário representa uma visão mais 
+otimista, sendo |baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -79,400 +103,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffe699"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC6C6C6"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q858"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="4" style="1" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.86"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.649999999999995" customFormat="1" s="1">
+    <row r="1" s="4" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +298,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -497,15 +315,15 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
+    <row r="2" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -522,15 +340,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+    <row r="3" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -547,9 +365,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -566,9 +384,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -585,8 +403,8 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6"/>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -604,8 +422,8 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6"/>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -623,8 +441,8 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="134.25">
-      <c r="A8" s="6"/>
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -642,8 +460,8 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
-      <c r="A9" s="6"/>
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -661,8 +479,8 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72.75">
-      <c r="A10" s="6"/>
+    <row r="10" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -680,8 +498,8 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="6"/>
+    <row r="11" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -699,8 +517,8 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="67.5">
-      <c r="A12" s="6"/>
+    <row r="12" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -718,8 +536,8 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="59.25">
-      <c r="A13" s="6"/>
+    <row r="13" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -737,8 +555,8 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
-      <c r="A14" s="6"/>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -756,7 +574,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -775,7 +593,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -794,7 +612,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="17" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -813,7 +631,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="18" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -832,7 +650,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="19" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -851,7 +669,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="20" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -870,7 +688,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="21" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -889,7 +707,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="22" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -908,7 +726,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="23" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -927,7 +745,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="24" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -946,7 +764,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="25" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -965,7 +783,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="26" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -984,7 +802,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="27" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1003,7 +821,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="28" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1022,7 +840,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="29" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1041,7 +859,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="30" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1060,7 +878,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="31" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1079,7 +897,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="32" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1098,7 +916,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="33" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1117,7 +935,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="34" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1136,7 +954,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="35" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1155,7 +973,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="36" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1174,7 +992,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="37" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1193,7 +1011,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="38" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1212,7 +1030,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="39" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1231,7 +1049,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="40" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1250,7 +1068,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="41" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1269,7 +1087,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="42" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1288,7 +1106,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="43" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1307,7 +1125,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="44" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1326,7 +1144,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="45" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1345,7 +1163,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="46" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1364,7 +1182,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="47" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1383,7 +1201,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="48" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1402,7 +1220,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="49" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1421,7 +1239,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="50" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1440,7 +1258,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="51" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1459,7 +1277,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="52" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1478,7 +1296,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="53" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1497,7 +1315,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="54" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1516,7 +1334,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="55" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1535,7 +1353,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="56" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1554,7 +1372,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="57" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1573,7 +1391,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="58" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1592,7 +1410,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="59" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1611,7 +1429,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="60" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1630,7 +1448,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="61" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1649,7 +1467,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="62" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1668,7 +1486,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="63" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1687,7 +1505,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="64" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1706,7 +1524,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="65" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1725,7 +1543,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="66" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1744,7 +1562,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="67" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1763,7 +1581,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="68" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1782,7 +1600,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="69" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1801,7 +1619,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1820,7 +1638,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1839,7 +1657,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1858,7 +1676,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1877,7 +1695,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1896,7 +1714,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="75" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1915,7 +1733,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="76" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1934,7 +1752,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="77" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1953,7 +1771,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="78" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1972,7 +1790,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="79" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1991,7 +1809,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="80" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2010,7 +1828,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="81" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2029,7 +1847,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="82" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2048,7 +1866,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="83" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2067,7 +1885,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2086,7 +1904,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2105,7 +1923,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2124,7 +1942,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2143,7 +1961,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2162,7 +1980,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2181,7 +1999,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="90" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2200,7 +2018,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="91" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2219,7 +2037,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="92" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2238,7 +2056,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="93" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2257,7 +2075,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="94" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2276,7 +2094,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="95" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2295,7 +2113,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="96" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2314,7 +2132,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="97" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2333,7 +2151,7 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2352,7 +2170,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="99" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2371,7 +2189,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="100" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2390,7 +2208,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="101" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2409,7 +2227,7 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="102" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2428,7 +2246,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="103" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2447,7 +2265,7 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2466,7 +2284,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2485,7 +2303,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="106" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2504,7 +2322,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="107" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2523,7 +2341,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="108" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2542,7 +2360,7 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="109" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2561,7 +2379,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="110" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2580,7 +2398,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="111" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2599,7 +2417,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="112" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2618,7 +2436,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="113" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2637,7 +2455,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="114" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2656,7 +2474,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="115" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2675,7 +2493,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="116" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2694,7 +2512,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="117" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2713,7 +2531,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="118" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2732,7 +2550,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="119" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2751,7 +2569,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="120" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2770,7 +2588,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="121" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2789,7 +2607,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="122" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2808,7 +2626,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="123" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2827,7 +2645,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2846,7 +2664,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="125" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2865,7 +2683,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2884,7 +2702,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="127" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2903,7 +2721,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="128" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2922,7 +2740,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="129" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2941,7 +2759,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="130" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2960,7 +2778,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="131" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2979,7 +2797,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="132" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2998,7 +2816,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="133" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3017,7 +2835,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="134" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3036,7 +2854,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="135" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3055,7 +2873,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="136" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3074,7 +2892,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="137" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3093,7 +2911,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="138" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3112,7 +2930,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="139" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3131,7 +2949,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="140" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3150,7 +2968,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="141" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3169,7 +2987,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="142" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3188,7 +3006,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="143" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3207,7 +3025,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="144" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3226,7 +3044,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="145" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3245,7 +3063,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="146" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3264,7 +3082,7 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="147" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3283,7 +3101,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="148" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3302,7 +3120,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="149" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3321,7 +3139,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="150" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3340,7 +3158,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="151" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3359,7 +3177,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="152" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3378,7 +3196,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="153" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3397,7 +3215,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="154" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3416,7 +3234,7 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="155" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3435,7 +3253,7 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="156" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3454,7 +3272,7 @@
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="157" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3473,7 +3291,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="158" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3492,7 +3310,7 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="159" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3511,7 +3329,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="160" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3530,7 +3348,7 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="161" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3549,7 +3367,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="162" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3568,7 +3386,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="163" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3587,7 +3405,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="164" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3606,7 +3424,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="165" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3625,7 +3443,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="166" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3644,7 +3462,7 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="167" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3663,7 +3481,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="168" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3682,7 +3500,7 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="169" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3701,7 +3519,7 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="170" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3720,7 +3538,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="171" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3739,7 +3557,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="172" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3758,7 +3576,7 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="173" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3777,7 +3595,7 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="174" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3796,7 +3614,7 @@
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="175" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3815,7 +3633,7 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="176" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3834,7 +3652,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="177" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3853,7 +3671,7 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="178" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3872,7 +3690,7 @@
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="179" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3891,7 +3709,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="180" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3910,7 +3728,7 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="181" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3929,7 +3747,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="182" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3948,7 +3766,7 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="183" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3967,7 +3785,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="184" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3986,7 +3804,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="185" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4005,7 +3823,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="186" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4024,7 +3842,7 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="187" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4043,7 +3861,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="188" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4062,7 +3880,7 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="189" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4081,7 +3899,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="190" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4100,7 +3918,7 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="191" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4119,7 +3937,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="192" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4138,7 +3956,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="193" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4157,7 +3975,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="194" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4176,7 +3994,7 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="195" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4195,7 +4013,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="196" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4214,7 +4032,7 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="197" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4233,7 +4051,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="198" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4252,7 +4070,7 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="199" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4271,7 +4089,7 @@
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="200" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4290,7 +4108,7 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="201" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4309,7 +4127,7 @@
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="202" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4328,7 +4146,7 @@
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="203" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4347,7 +4165,7 @@
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="204" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4366,7 +4184,7 @@
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="205" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4385,7 +4203,7 @@
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="206" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4404,7 +4222,7 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="207" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4423,7 +4241,7 @@
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="208" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4442,7 +4260,7 @@
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="209" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4461,7 +4279,7 @@
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="210" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4480,7 +4298,7 @@
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="211" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4499,7 +4317,7 @@
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="212" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4518,7 +4336,7 @@
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="213" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4537,7 +4355,7 @@
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="214" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4556,7 +4374,7 @@
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="215" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4575,7 +4393,7 @@
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="216" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4594,7 +4412,7 @@
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="217" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4613,7 +4431,7 @@
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="218" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4632,7 +4450,7 @@
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="219" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4651,7 +4469,7 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="220" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4670,7 +4488,7 @@
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="221" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4689,7 +4507,7 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="222" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4708,7 +4526,7 @@
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="223" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4727,7 +4545,7 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="224" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4746,7 +4564,7 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="225" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4765,7 +4583,7 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="226" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4784,7 +4602,7 @@
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="227" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4803,7 +4621,7 @@
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="228" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4822,7 +4640,7 @@
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="229" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4841,7 +4659,7 @@
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="230" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4860,7 +4678,7 @@
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="231" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4879,7 +4697,7 @@
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="232" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4898,7 +4716,7 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="233" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -4917,7 +4735,7 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="234" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -4936,7 +4754,7 @@
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="235" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -4955,7 +4773,7 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="236" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -4974,7 +4792,7 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="237" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -4993,7 +4811,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="238" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5012,7 +4830,7 @@
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="239" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5031,7 +4849,7 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="240" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5050,7 +4868,7 @@
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="241" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5069,7 +4887,7 @@
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="242" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5088,7 +4906,7 @@
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="243" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5107,7 +4925,7 @@
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="244" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5126,7 +4944,7 @@
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="245" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5145,7 +4963,7 @@
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="246" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5164,7 +4982,7 @@
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="247" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5183,7 +5001,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="248" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5202,7 +5020,7 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="249" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5221,7 +5039,7 @@
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="250" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5240,7 +5058,7 @@
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="251" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5259,7 +5077,7 @@
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="252" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5278,7 +5096,7 @@
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="253" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -5297,7 +5115,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="254" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5316,7 +5134,7 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="255" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5335,7 +5153,7 @@
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="256" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5354,7 +5172,7 @@
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="257" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5373,7 +5191,7 @@
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="258" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5392,7 +5210,7 @@
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="259" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -5411,7 +5229,7 @@
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="260" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -5430,7 +5248,7 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="261" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -5449,7 +5267,7 @@
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="262" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -5468,7 +5286,7 @@
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="263" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -5487,7 +5305,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="264" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -5506,7 +5324,7 @@
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="265" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -5525,7 +5343,7 @@
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="266" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -5544,7 +5362,7 @@
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="267" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -5563,7 +5381,7 @@
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="268" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5582,7 +5400,7 @@
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="269" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -5601,7 +5419,7 @@
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="270" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -5620,7 +5438,7 @@
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="271" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5639,7 +5457,7 @@
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="272" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5658,7 +5476,7 @@
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="273" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5677,7 +5495,7 @@
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="274" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -5696,7 +5514,7 @@
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="275" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -5715,7 +5533,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="276" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5734,7 +5552,7 @@
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="277" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5753,7 +5571,7 @@
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="278" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5772,7 +5590,7 @@
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="279" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5791,7 +5609,7 @@
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="280" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5810,7 +5628,7 @@
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="281" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5829,7 +5647,7 @@
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="282" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -5848,7 +5666,7 @@
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="283" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -5867,7 +5685,7 @@
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="284" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5886,7 +5704,7 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="285" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5905,7 +5723,7 @@
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="286" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5924,7 +5742,7 @@
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="287" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5943,7 +5761,7 @@
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="288" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5962,7 +5780,7 @@
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="289" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -5981,7 +5799,7 @@
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="290" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -6000,7 +5818,7 @@
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="291" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -6019,7 +5837,7 @@
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="292" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -6038,7 +5856,7 @@
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="293" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -6057,7 +5875,7 @@
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="294" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -6076,7 +5894,7 @@
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="295" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -6095,7 +5913,7 @@
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="296" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -6114,7 +5932,7 @@
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="297" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -6133,7 +5951,7 @@
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="298" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -6152,7 +5970,7 @@
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="299" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -6171,7 +5989,7 @@
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="300" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -6190,7 +6008,7 @@
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="301" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -6209,7 +6027,7 @@
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="302" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -6228,7 +6046,7 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="303" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -6247,7 +6065,7 @@
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="304" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -6266,7 +6084,7 @@
       <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="305" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6285,7 +6103,7 @@
       <c r="P305" s="3"/>
       <c r="Q305" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="306" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6304,7 +6122,7 @@
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="307" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -6323,7 +6141,7 @@
       <c r="P307" s="3"/>
       <c r="Q307" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="308" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -6342,7 +6160,7 @@
       <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="309" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -6361,7 +6179,7 @@
       <c r="P309" s="3"/>
       <c r="Q309" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="310" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -6380,7 +6198,7 @@
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="311" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -6399,7 +6217,7 @@
       <c r="P311" s="3"/>
       <c r="Q311" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="312" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -6418,7 +6236,7 @@
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="313" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -6437,7 +6255,7 @@
       <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="314" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -6456,7 +6274,7 @@
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="315" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -6475,7 +6293,7 @@
       <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="316" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -6494,7 +6312,7 @@
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="317" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -6513,7 +6331,7 @@
       <c r="P317" s="3"/>
       <c r="Q317" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="318" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -6532,7 +6350,7 @@
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="319" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -6551,7 +6369,7 @@
       <c r="P319" s="3"/>
       <c r="Q319" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="320" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -6570,7 +6388,7 @@
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="321" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -6589,7 +6407,7 @@
       <c r="P321" s="3"/>
       <c r="Q321" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="322" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -6608,7 +6426,7 @@
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="323" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -6627,7 +6445,7 @@
       <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="324" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -6646,7 +6464,7 @@
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="325" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -6665,7 +6483,7 @@
       <c r="P325" s="3"/>
       <c r="Q325" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="326" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -6684,7 +6502,7 @@
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="327" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -6703,7 +6521,7 @@
       <c r="P327" s="3"/>
       <c r="Q327" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="328" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -6722,7 +6540,7 @@
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="329" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -6741,7 +6559,7 @@
       <c r="P329" s="3"/>
       <c r="Q329" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="330" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -6760,7 +6578,7 @@
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="331" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -6779,7 +6597,7 @@
       <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="332" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -6798,7 +6616,7 @@
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="333" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -6817,7 +6635,7 @@
       <c r="P333" s="3"/>
       <c r="Q333" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="334" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -6836,7 +6654,7 @@
       <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="335" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -6855,7 +6673,7 @@
       <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="336" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6874,7 +6692,7 @@
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="337" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6893,7 +6711,7 @@
       <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="338" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6912,7 +6730,7 @@
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="339" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -6931,7 +6749,7 @@
       <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="340" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -6950,7 +6768,7 @@
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="341" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6969,7 +6787,7 @@
       <c r="P341" s="3"/>
       <c r="Q341" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="342" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6988,7 +6806,7 @@
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="343" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -7007,7 +6825,7 @@
       <c r="P343" s="3"/>
       <c r="Q343" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="344" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -7026,7 +6844,7 @@
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="345" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -7045,7 +6863,7 @@
       <c r="P345" s="3"/>
       <c r="Q345" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="346" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -7064,7 +6882,7 @@
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="347" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -7083,7 +6901,7 @@
       <c r="P347" s="3"/>
       <c r="Q347" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="348" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -7102,7 +6920,7 @@
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="349" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -7121,7 +6939,7 @@
       <c r="P349" s="3"/>
       <c r="Q349" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="350" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -7140,7 +6958,7 @@
       <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="351" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -7159,7 +6977,7 @@
       <c r="P351" s="3"/>
       <c r="Q351" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="352" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -7178,7 +6996,7 @@
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="353" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -7197,7 +7015,7 @@
       <c r="P353" s="3"/>
       <c r="Q353" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="354" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -7216,7 +7034,7 @@
       <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="355" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -7235,7 +7053,7 @@
       <c r="P355" s="3"/>
       <c r="Q355" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="356" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -7254,7 +7072,7 @@
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="357" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -7273,7 +7091,7 @@
       <c r="P357" s="3"/>
       <c r="Q357" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="358" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -7292,7 +7110,7 @@
       <c r="P358" s="3"/>
       <c r="Q358" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="359" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -7311,7 +7129,7 @@
       <c r="P359" s="3"/>
       <c r="Q359" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="360" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -7330,7 +7148,7 @@
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="361" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -7349,7 +7167,7 @@
       <c r="P361" s="3"/>
       <c r="Q361" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="362" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -7368,7 +7186,7 @@
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="363" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -7387,7 +7205,7 @@
       <c r="P363" s="3"/>
       <c r="Q363" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="364" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -7406,7 +7224,7 @@
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="365" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -7425,7 +7243,7 @@
       <c r="P365" s="3"/>
       <c r="Q365" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="366" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -7444,7 +7262,7 @@
       <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="367" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -7463,7 +7281,7 @@
       <c r="P367" s="3"/>
       <c r="Q367" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="368" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -7482,7 +7300,7 @@
       <c r="P368" s="3"/>
       <c r="Q368" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="369" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -7501,7 +7319,7 @@
       <c r="P369" s="3"/>
       <c r="Q369" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="370" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -7520,7 +7338,7 @@
       <c r="P370" s="3"/>
       <c r="Q370" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="371" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -7539,7 +7357,7 @@
       <c r="P371" s="3"/>
       <c r="Q371" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="372" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -7558,7 +7376,7 @@
       <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="373" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -7577,7 +7395,7 @@
       <c r="P373" s="3"/>
       <c r="Q373" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="374" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -7596,7 +7414,7 @@
       <c r="P374" s="3"/>
       <c r="Q374" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="375" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -7615,7 +7433,7 @@
       <c r="P375" s="3"/>
       <c r="Q375" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="376" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -7634,7 +7452,7 @@
       <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="377" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -7653,7 +7471,7 @@
       <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="378" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -7672,7 +7490,7 @@
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="379" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -7691,7 +7509,7 @@
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="380" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -7710,7 +7528,7 @@
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="381" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -7729,7 +7547,7 @@
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="382" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -7748,7 +7566,7 @@
       <c r="P382" s="3"/>
       <c r="Q382" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="383" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -7767,7 +7585,7 @@
       <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="384" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -7786,7 +7604,7 @@
       <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="385" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -7805,7 +7623,7 @@
       <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="386" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -7824,7 +7642,7 @@
       <c r="P386" s="3"/>
       <c r="Q386" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="387" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -7843,7 +7661,7 @@
       <c r="P387" s="3"/>
       <c r="Q387" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="388" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -7862,7 +7680,7 @@
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="389" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -7881,7 +7699,7 @@
       <c r="P389" s="3"/>
       <c r="Q389" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="390" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -7900,7 +7718,7 @@
       <c r="P390" s="3"/>
       <c r="Q390" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="391" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -7919,7 +7737,7 @@
       <c r="P391" s="3"/>
       <c r="Q391" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="392" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -7938,7 +7756,7 @@
       <c r="P392" s="3"/>
       <c r="Q392" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="393" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -7957,7 +7775,7 @@
       <c r="P393" s="3"/>
       <c r="Q393" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="394" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -7976,7 +7794,7 @@
       <c r="P394" s="3"/>
       <c r="Q394" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="395" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -7995,7 +7813,7 @@
       <c r="P395" s="3"/>
       <c r="Q395" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="396" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -8014,7 +7832,7 @@
       <c r="P396" s="3"/>
       <c r="Q396" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="397" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -8033,7 +7851,7 @@
       <c r="P397" s="3"/>
       <c r="Q397" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="398" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -8052,7 +7870,7 @@
       <c r="P398" s="3"/>
       <c r="Q398" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="399" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -8071,7 +7889,7 @@
       <c r="P399" s="3"/>
       <c r="Q399" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="400" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -8090,7 +7908,7 @@
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="401" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -8109,7 +7927,7 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="402" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -8128,7 +7946,7 @@
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="403" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -8147,7 +7965,7 @@
       <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="404" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -8166,7 +7984,7 @@
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="405" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -8185,7 +8003,7 @@
       <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="406" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -8204,7 +8022,7 @@
       <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="407" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -8223,7 +8041,7 @@
       <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="408" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -8242,7 +8060,7 @@
       <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="409" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -8261,7 +8079,7 @@
       <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="410" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -8280,7 +8098,7 @@
       <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="411" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -8299,7 +8117,7 @@
       <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="412" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -8318,7 +8136,7 @@
       <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="413" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -8337,7 +8155,7 @@
       <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="414" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -8356,7 +8174,7 @@
       <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="415" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -8375,7 +8193,7 @@
       <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="416" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -8394,7 +8212,7 @@
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="417" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -8413,7 +8231,7 @@
       <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="418" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -8432,7 +8250,7 @@
       <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="419" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -8451,7 +8269,7 @@
       <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="420" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -8470,7 +8288,7 @@
       <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="421" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -8489,7 +8307,7 @@
       <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="422" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -8508,7 +8326,7 @@
       <c r="P422" s="3"/>
       <c r="Q422" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="423" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -8527,7 +8345,7 @@
       <c r="P423" s="3"/>
       <c r="Q423" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="424" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -8546,7 +8364,7 @@
       <c r="P424" s="3"/>
       <c r="Q424" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="425" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -8565,7 +8383,7 @@
       <c r="P425" s="3"/>
       <c r="Q425" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="426" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -8584,7 +8402,7 @@
       <c r="P426" s="3"/>
       <c r="Q426" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="427" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -8603,7 +8421,7 @@
       <c r="P427" s="3"/>
       <c r="Q427" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="428" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -8622,7 +8440,7 @@
       <c r="P428" s="3"/>
       <c r="Q428" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="429" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -8641,7 +8459,7 @@
       <c r="P429" s="3"/>
       <c r="Q429" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="430" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -8660,7 +8478,7 @@
       <c r="P430" s="3"/>
       <c r="Q430" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="431" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -8679,7 +8497,7 @@
       <c r="P431" s="3"/>
       <c r="Q431" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="432" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -8698,7 +8516,7 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="433" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -8717,7 +8535,7 @@
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="434" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -8736,7 +8554,7 @@
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="435" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -8755,7 +8573,7 @@
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="436" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -8774,7 +8592,7 @@
       <c r="P436" s="3"/>
       <c r="Q436" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="437" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -8793,7 +8611,7 @@
       <c r="P437" s="3"/>
       <c r="Q437" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="438" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -8812,7 +8630,7 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="439" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -8831,7 +8649,7 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="440" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -8850,7 +8668,7 @@
       <c r="P440" s="3"/>
       <c r="Q440" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="441" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -8869,7 +8687,7 @@
       <c r="P441" s="3"/>
       <c r="Q441" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="442" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -8888,7 +8706,7 @@
       <c r="P442" s="3"/>
       <c r="Q442" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="443" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -8907,7 +8725,7 @@
       <c r="P443" s="3"/>
       <c r="Q443" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="444" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -8926,7 +8744,7 @@
       <c r="P444" s="3"/>
       <c r="Q444" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="445" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -8945,7 +8763,7 @@
       <c r="P445" s="3"/>
       <c r="Q445" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="446" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -8964,7 +8782,7 @@
       <c r="P446" s="3"/>
       <c r="Q446" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="447" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -8983,7 +8801,7 @@
       <c r="P447" s="3"/>
       <c r="Q447" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="448" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -9002,7 +8820,7 @@
       <c r="P448" s="3"/>
       <c r="Q448" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="449" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -9021,7 +8839,7 @@
       <c r="P449" s="3"/>
       <c r="Q449" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="450" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -9040,7 +8858,7 @@
       <c r="P450" s="3"/>
       <c r="Q450" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="451" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -9059,7 +8877,7 @@
       <c r="P451" s="3"/>
       <c r="Q451" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="452" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -9078,7 +8896,7 @@
       <c r="P452" s="3"/>
       <c r="Q452" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="453" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -9097,7 +8915,7 @@
       <c r="P453" s="3"/>
       <c r="Q453" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="454" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -9116,7 +8934,7 @@
       <c r="P454" s="3"/>
       <c r="Q454" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="455" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -9135,7 +8953,7 @@
       <c r="P455" s="3"/>
       <c r="Q455" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="456" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -9154,7 +8972,7 @@
       <c r="P456" s="3"/>
       <c r="Q456" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="457" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -9173,7 +8991,7 @@
       <c r="P457" s="3"/>
       <c r="Q457" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="458" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -9192,7 +9010,7 @@
       <c r="P458" s="3"/>
       <c r="Q458" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="459" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -9211,7 +9029,7 @@
       <c r="P459" s="3"/>
       <c r="Q459" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="460" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -9230,7 +9048,7 @@
       <c r="P460" s="3"/>
       <c r="Q460" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="461" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -9249,7 +9067,7 @@
       <c r="P461" s="3"/>
       <c r="Q461" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="462" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -9268,7 +9086,7 @@
       <c r="P462" s="3"/>
       <c r="Q462" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="463" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -9287,7 +9105,7 @@
       <c r="P463" s="3"/>
       <c r="Q463" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="464" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -9306,7 +9124,7 @@
       <c r="P464" s="3"/>
       <c r="Q464" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="465" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -9325,7 +9143,7 @@
       <c r="P465" s="3"/>
       <c r="Q465" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="466" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -9344,7 +9162,7 @@
       <c r="P466" s="3"/>
       <c r="Q466" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="467" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -9363,7 +9181,7 @@
       <c r="P467" s="3"/>
       <c r="Q467" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="468" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -9382,7 +9200,7 @@
       <c r="P468" s="3"/>
       <c r="Q468" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="469" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -9401,7 +9219,7 @@
       <c r="P469" s="3"/>
       <c r="Q469" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="470" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -9420,7 +9238,7 @@
       <c r="P470" s="3"/>
       <c r="Q470" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="471" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -9439,7 +9257,7 @@
       <c r="P471" s="3"/>
       <c r="Q471" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="472" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -9458,7 +9276,7 @@
       <c r="P472" s="3"/>
       <c r="Q472" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="473" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -9477,7 +9295,7 @@
       <c r="P473" s="3"/>
       <c r="Q473" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="474" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -9496,7 +9314,7 @@
       <c r="P474" s="3"/>
       <c r="Q474" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="475" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -9515,7 +9333,7 @@
       <c r="P475" s="3"/>
       <c r="Q475" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="476" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -9534,7 +9352,7 @@
       <c r="P476" s="3"/>
       <c r="Q476" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="477" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -9553,7 +9371,7 @@
       <c r="P477" s="3"/>
       <c r="Q477" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="478" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -9572,7 +9390,7 @@
       <c r="P478" s="3"/>
       <c r="Q478" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="479" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -9591,7 +9409,7 @@
       <c r="P479" s="3"/>
       <c r="Q479" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="480" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -9610,7 +9428,7 @@
       <c r="P480" s="3"/>
       <c r="Q480" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="481" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -9629,7 +9447,7 @@
       <c r="P481" s="3"/>
       <c r="Q481" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="482" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -9648,7 +9466,7 @@
       <c r="P482" s="3"/>
       <c r="Q482" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="483" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -9667,7 +9485,7 @@
       <c r="P483" s="3"/>
       <c r="Q483" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="484" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -9686,7 +9504,7 @@
       <c r="P484" s="3"/>
       <c r="Q484" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="485" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -9705,7 +9523,7 @@
       <c r="P485" s="3"/>
       <c r="Q485" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="486" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -9724,7 +9542,7 @@
       <c r="P486" s="3"/>
       <c r="Q486" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="487" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -9743,7 +9561,7 @@
       <c r="P487" s="3"/>
       <c r="Q487" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="488" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -9762,7 +9580,7 @@
       <c r="P488" s="3"/>
       <c r="Q488" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="489" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -9781,7 +9599,7 @@
       <c r="P489" s="3"/>
       <c r="Q489" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="490" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -9800,7 +9618,7 @@
       <c r="P490" s="3"/>
       <c r="Q490" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="491" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -9819,7 +9637,7 @@
       <c r="P491" s="3"/>
       <c r="Q491" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="492" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -9838,7 +9656,7 @@
       <c r="P492" s="3"/>
       <c r="Q492" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="493" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -9857,7 +9675,7 @@
       <c r="P493" s="3"/>
       <c r="Q493" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="494" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -9876,7 +9694,7 @@
       <c r="P494" s="3"/>
       <c r="Q494" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="495" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -9895,7 +9713,7 @@
       <c r="P495" s="3"/>
       <c r="Q495" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="496" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -9914,7 +9732,7 @@
       <c r="P496" s="3"/>
       <c r="Q496" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="497" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -9933,7 +9751,7 @@
       <c r="P497" s="3"/>
       <c r="Q497" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="498" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -9952,7 +9770,7 @@
       <c r="P498" s="3"/>
       <c r="Q498" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="499" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -9971,7 +9789,7 @@
       <c r="P499" s="3"/>
       <c r="Q499" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="500" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -9990,7 +9808,7 @@
       <c r="P500" s="3"/>
       <c r="Q500" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="501" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -10009,7 +9827,7 @@
       <c r="P501" s="3"/>
       <c r="Q501" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="502" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -10028,7 +9846,7 @@
       <c r="P502" s="3"/>
       <c r="Q502" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="503" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -10047,7 +9865,7 @@
       <c r="P503" s="3"/>
       <c r="Q503" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="504" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -10066,7 +9884,7 @@
       <c r="P504" s="3"/>
       <c r="Q504" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="505" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -10085,7 +9903,7 @@
       <c r="P505" s="3"/>
       <c r="Q505" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="506" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -10104,7 +9922,7 @@
       <c r="P506" s="3"/>
       <c r="Q506" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="507" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -10123,7 +9941,7 @@
       <c r="P507" s="3"/>
       <c r="Q507" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="508" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -10142,7 +9960,7 @@
       <c r="P508" s="3"/>
       <c r="Q508" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="509" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -10161,7 +9979,7 @@
       <c r="P509" s="3"/>
       <c r="Q509" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="510" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -10180,7 +9998,7 @@
       <c r="P510" s="3"/>
       <c r="Q510" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="511" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -10199,7 +10017,7 @@
       <c r="P511" s="3"/>
       <c r="Q511" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="512" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -10218,7 +10036,7 @@
       <c r="P512" s="3"/>
       <c r="Q512" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="513" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -10237,7 +10055,7 @@
       <c r="P513" s="3"/>
       <c r="Q513" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="514" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -10256,7 +10074,7 @@
       <c r="P514" s="3"/>
       <c r="Q514" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="515" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -10275,7 +10093,7 @@
       <c r="P515" s="3"/>
       <c r="Q515" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="516" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -10294,7 +10112,7 @@
       <c r="P516" s="3"/>
       <c r="Q516" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="517" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -10313,7 +10131,7 @@
       <c r="P517" s="3"/>
       <c r="Q517" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="518" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -10332,7 +10150,7 @@
       <c r="P518" s="3"/>
       <c r="Q518" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="519" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -10351,7 +10169,7 @@
       <c r="P519" s="3"/>
       <c r="Q519" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="520" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -10370,7 +10188,7 @@
       <c r="P520" s="3"/>
       <c r="Q520" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="521" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -10389,7 +10207,7 @@
       <c r="P521" s="3"/>
       <c r="Q521" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="522" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -10408,7 +10226,7 @@
       <c r="P522" s="3"/>
       <c r="Q522" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="523" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -10427,7 +10245,7 @@
       <c r="P523" s="3"/>
       <c r="Q523" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="524" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -10446,7 +10264,7 @@
       <c r="P524" s="3"/>
       <c r="Q524" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="525" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -10465,7 +10283,7 @@
       <c r="P525" s="3"/>
       <c r="Q525" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="526" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -10484,7 +10302,7 @@
       <c r="P526" s="3"/>
       <c r="Q526" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="527" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -10503,7 +10321,7 @@
       <c r="P527" s="3"/>
       <c r="Q527" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="528" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -10522,7 +10340,7 @@
       <c r="P528" s="3"/>
       <c r="Q528" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="529" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -10541,7 +10359,7 @@
       <c r="P529" s="3"/>
       <c r="Q529" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="530" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -10560,7 +10378,7 @@
       <c r="P530" s="3"/>
       <c r="Q530" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="531" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -10579,7 +10397,7 @@
       <c r="P531" s="3"/>
       <c r="Q531" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="532" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -10598,7 +10416,7 @@
       <c r="P532" s="3"/>
       <c r="Q532" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="533" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -10617,7 +10435,7 @@
       <c r="P533" s="3"/>
       <c r="Q533" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="534" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -10636,7 +10454,7 @@
       <c r="P534" s="3"/>
       <c r="Q534" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="535" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -10655,7 +10473,7 @@
       <c r="P535" s="3"/>
       <c r="Q535" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="536" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -10674,7 +10492,7 @@
       <c r="P536" s="3"/>
       <c r="Q536" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="537" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -10693,7 +10511,7 @@
       <c r="P537" s="3"/>
       <c r="Q537" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="538" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -10712,7 +10530,7 @@
       <c r="P538" s="3"/>
       <c r="Q538" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="539" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -10731,7 +10549,7 @@
       <c r="P539" s="3"/>
       <c r="Q539" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="540" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -10750,7 +10568,7 @@
       <c r="P540" s="3"/>
       <c r="Q540" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="541" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -10769,7 +10587,7 @@
       <c r="P541" s="3"/>
       <c r="Q541" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="542" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -10788,7 +10606,7 @@
       <c r="P542" s="3"/>
       <c r="Q542" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="543" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -10807,7 +10625,7 @@
       <c r="P543" s="3"/>
       <c r="Q543" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="544" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -10826,7 +10644,7 @@
       <c r="P544" s="3"/>
       <c r="Q544" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="545" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -10845,7 +10663,7 @@
       <c r="P545" s="3"/>
       <c r="Q545" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="546" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -10864,7 +10682,7 @@
       <c r="P546" s="3"/>
       <c r="Q546" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="547" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -10883,7 +10701,7 @@
       <c r="P547" s="3"/>
       <c r="Q547" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="548" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -10902,7 +10720,7 @@
       <c r="P548" s="3"/>
       <c r="Q548" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="549" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -10921,7 +10739,7 @@
       <c r="P549" s="3"/>
       <c r="Q549" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="550" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -10940,7 +10758,7 @@
       <c r="P550" s="3"/>
       <c r="Q550" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="551" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -10959,7 +10777,7 @@
       <c r="P551" s="3"/>
       <c r="Q551" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="552" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -10978,7 +10796,7 @@
       <c r="P552" s="3"/>
       <c r="Q552" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="553" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -10997,7 +10815,7 @@
       <c r="P553" s="3"/>
       <c r="Q553" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="554" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -11016,7 +10834,7 @@
       <c r="P554" s="3"/>
       <c r="Q554" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="555" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -11035,7 +10853,7 @@
       <c r="P555" s="3"/>
       <c r="Q555" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="556" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -11054,7 +10872,7 @@
       <c r="P556" s="3"/>
       <c r="Q556" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="557" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -11073,7 +10891,7 @@
       <c r="P557" s="3"/>
       <c r="Q557" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="558" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -11092,7 +10910,7 @@
       <c r="P558" s="3"/>
       <c r="Q558" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="559" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -11111,7 +10929,7 @@
       <c r="P559" s="3"/>
       <c r="Q559" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="560" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -11130,7 +10948,7 @@
       <c r="P560" s="3"/>
       <c r="Q560" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="561" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -11149,7 +10967,7 @@
       <c r="P561" s="3"/>
       <c r="Q561" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="562" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -11168,7 +10986,7 @@
       <c r="P562" s="3"/>
       <c r="Q562" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="563" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -11187,7 +11005,7 @@
       <c r="P563" s="3"/>
       <c r="Q563" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="564" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -11206,7 +11024,7 @@
       <c r="P564" s="3"/>
       <c r="Q564" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="565" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -11225,7 +11043,7 @@
       <c r="P565" s="3"/>
       <c r="Q565" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="566" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -11244,7 +11062,7 @@
       <c r="P566" s="3"/>
       <c r="Q566" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="567" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -11263,7 +11081,7 @@
       <c r="P567" s="3"/>
       <c r="Q567" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="568" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -11282,7 +11100,7 @@
       <c r="P568" s="3"/>
       <c r="Q568" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="569" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -11301,7 +11119,7 @@
       <c r="P569" s="3"/>
       <c r="Q569" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="570" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -11320,7 +11138,7 @@
       <c r="P570" s="3"/>
       <c r="Q570" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="571" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -11339,7 +11157,7 @@
       <c r="P571" s="3"/>
       <c r="Q571" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="572" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -11358,7 +11176,7 @@
       <c r="P572" s="3"/>
       <c r="Q572" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="573" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -11377,7 +11195,7 @@
       <c r="P573" s="3"/>
       <c r="Q573" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="574" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -11396,7 +11214,7 @@
       <c r="P574" s="3"/>
       <c r="Q574" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="575" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -11415,7 +11233,7 @@
       <c r="P575" s="3"/>
       <c r="Q575" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="576" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -11434,7 +11252,7 @@
       <c r="P576" s="3"/>
       <c r="Q576" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="577" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -11453,7 +11271,7 @@
       <c r="P577" s="3"/>
       <c r="Q577" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="578" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -11472,7 +11290,7 @@
       <c r="P578" s="3"/>
       <c r="Q578" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="579" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -11491,7 +11309,7 @@
       <c r="P579" s="3"/>
       <c r="Q579" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="580" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -11510,7 +11328,7 @@
       <c r="P580" s="3"/>
       <c r="Q580" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="581" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -11529,7 +11347,7 @@
       <c r="P581" s="3"/>
       <c r="Q581" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="582" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -11548,7 +11366,7 @@
       <c r="P582" s="3"/>
       <c r="Q582" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="583" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -11567,7 +11385,7 @@
       <c r="P583" s="3"/>
       <c r="Q583" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="584" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -11586,7 +11404,7 @@
       <c r="P584" s="3"/>
       <c r="Q584" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="585" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -11605,7 +11423,7 @@
       <c r="P585" s="3"/>
       <c r="Q585" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="586" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -11624,7 +11442,7 @@
       <c r="P586" s="3"/>
       <c r="Q586" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="587" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -11643,7 +11461,7 @@
       <c r="P587" s="3"/>
       <c r="Q587" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="588" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -11662,7 +11480,7 @@
       <c r="P588" s="3"/>
       <c r="Q588" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="589" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -11681,7 +11499,7 @@
       <c r="P589" s="3"/>
       <c r="Q589" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="590" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -11700,7 +11518,7 @@
       <c r="P590" s="3"/>
       <c r="Q590" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="591" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -11719,7 +11537,7 @@
       <c r="P591" s="3"/>
       <c r="Q591" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="592" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -11738,7 +11556,7 @@
       <c r="P592" s="3"/>
       <c r="Q592" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="593" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -11757,7 +11575,7 @@
       <c r="P593" s="3"/>
       <c r="Q593" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="594" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -11776,7 +11594,7 @@
       <c r="P594" s="3"/>
       <c r="Q594" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="595" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -11795,7 +11613,7 @@
       <c r="P595" s="3"/>
       <c r="Q595" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="596" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -11814,7 +11632,7 @@
       <c r="P596" s="3"/>
       <c r="Q596" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="597" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -11833,7 +11651,7 @@
       <c r="P597" s="3"/>
       <c r="Q597" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="598" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -11852,7 +11670,7 @@
       <c r="P598" s="3"/>
       <c r="Q598" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="599" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -11871,7 +11689,7 @@
       <c r="P599" s="3"/>
       <c r="Q599" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="600" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -11890,7 +11708,7 @@
       <c r="P600" s="3"/>
       <c r="Q600" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="601" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -11909,7 +11727,7 @@
       <c r="P601" s="3"/>
       <c r="Q601" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="602" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -11928,7 +11746,7 @@
       <c r="P602" s="3"/>
       <c r="Q602" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="603" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -11947,7 +11765,7 @@
       <c r="P603" s="3"/>
       <c r="Q603" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="604" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -11966,7 +11784,7 @@
       <c r="P604" s="3"/>
       <c r="Q604" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="605" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -11985,7 +11803,7 @@
       <c r="P605" s="3"/>
       <c r="Q605" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="606" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -12004,7 +11822,7 @@
       <c r="P606" s="3"/>
       <c r="Q606" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="607" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -12023,7 +11841,7 @@
       <c r="P607" s="3"/>
       <c r="Q607" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="608" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -12042,7 +11860,7 @@
       <c r="P608" s="3"/>
       <c r="Q608" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="609" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -12061,7 +11879,7 @@
       <c r="P609" s="3"/>
       <c r="Q609" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="610" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -12080,7 +11898,7 @@
       <c r="P610" s="3"/>
       <c r="Q610" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="611" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -12099,7 +11917,7 @@
       <c r="P611" s="3"/>
       <c r="Q611" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="612" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -12118,7 +11936,7 @@
       <c r="P612" s="3"/>
       <c r="Q612" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="613" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -12137,7 +11955,7 @@
       <c r="P613" s="3"/>
       <c r="Q613" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="614" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -12156,7 +11974,7 @@
       <c r="P614" s="3"/>
       <c r="Q614" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="615" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -12175,7 +11993,7 @@
       <c r="P615" s="3"/>
       <c r="Q615" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="616" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -12194,7 +12012,7 @@
       <c r="P616" s="3"/>
       <c r="Q616" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="617" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -12213,7 +12031,7 @@
       <c r="P617" s="3"/>
       <c r="Q617" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="618" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -12232,7 +12050,7 @@
       <c r="P618" s="3"/>
       <c r="Q618" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="619" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -12251,7 +12069,7 @@
       <c r="P619" s="3"/>
       <c r="Q619" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="620" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -12270,7 +12088,7 @@
       <c r="P620" s="3"/>
       <c r="Q620" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="621" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -12289,7 +12107,7 @@
       <c r="P621" s="3"/>
       <c r="Q621" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="622" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -12308,7 +12126,7 @@
       <c r="P622" s="3"/>
       <c r="Q622" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="623" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -12327,7 +12145,7 @@
       <c r="P623" s="3"/>
       <c r="Q623" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="624" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -12346,7 +12164,7 @@
       <c r="P624" s="3"/>
       <c r="Q624" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="625" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -12365,7 +12183,7 @@
       <c r="P625" s="3"/>
       <c r="Q625" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="626" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -12384,7 +12202,7 @@
       <c r="P626" s="3"/>
       <c r="Q626" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="627" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -12403,7 +12221,7 @@
       <c r="P627" s="3"/>
       <c r="Q627" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="628" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -12422,7 +12240,7 @@
       <c r="P628" s="3"/>
       <c r="Q628" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="629" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -12441,7 +12259,7 @@
       <c r="P629" s="3"/>
       <c r="Q629" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="630" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -12460,7 +12278,7 @@
       <c r="P630" s="3"/>
       <c r="Q630" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="631" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -12479,7 +12297,7 @@
       <c r="P631" s="3"/>
       <c r="Q631" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="632" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -12498,7 +12316,7 @@
       <c r="P632" s="3"/>
       <c r="Q632" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="633" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -12517,7 +12335,7 @@
       <c r="P633" s="3"/>
       <c r="Q633" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="634" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -12536,7 +12354,7 @@
       <c r="P634" s="3"/>
       <c r="Q634" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="635" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -12555,7 +12373,7 @@
       <c r="P635" s="3"/>
       <c r="Q635" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="636" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -12574,7 +12392,7 @@
       <c r="P636" s="3"/>
       <c r="Q636" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="637" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -12593,7 +12411,7 @@
       <c r="P637" s="3"/>
       <c r="Q637" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="638" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -12612,7 +12430,7 @@
       <c r="P638" s="3"/>
       <c r="Q638" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="639" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -12631,7 +12449,7 @@
       <c r="P639" s="3"/>
       <c r="Q639" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="640" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -12650,7 +12468,7 @@
       <c r="P640" s="3"/>
       <c r="Q640" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="641" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -12669,7 +12487,7 @@
       <c r="P641" s="3"/>
       <c r="Q641" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="642" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -12688,7 +12506,7 @@
       <c r="P642" s="3"/>
       <c r="Q642" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="643" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -12707,7 +12525,7 @@
       <c r="P643" s="3"/>
       <c r="Q643" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="644" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -12726,7 +12544,7 @@
       <c r="P644" s="3"/>
       <c r="Q644" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="645" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -12745,7 +12563,7 @@
       <c r="P645" s="3"/>
       <c r="Q645" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="646" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -12764,7 +12582,7 @@
       <c r="P646" s="3"/>
       <c r="Q646" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="647" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -12783,7 +12601,7 @@
       <c r="P647" s="3"/>
       <c r="Q647" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="648" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -12802,7 +12620,7 @@
       <c r="P648" s="3"/>
       <c r="Q648" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="649" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -12821,7 +12639,7 @@
       <c r="P649" s="3"/>
       <c r="Q649" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="650" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -12840,7 +12658,7 @@
       <c r="P650" s="3"/>
       <c r="Q650" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="651" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -12859,7 +12677,7 @@
       <c r="P651" s="3"/>
       <c r="Q651" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="652" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -12878,7 +12696,7 @@
       <c r="P652" s="3"/>
       <c r="Q652" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="653" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -12897,7 +12715,7 @@
       <c r="P653" s="3"/>
       <c r="Q653" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="654" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -12916,7 +12734,7 @@
       <c r="P654" s="3"/>
       <c r="Q654" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="655" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -12935,7 +12753,7 @@
       <c r="P655" s="3"/>
       <c r="Q655" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="656" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -12954,7 +12772,7 @@
       <c r="P656" s="3"/>
       <c r="Q656" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="657" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -12973,7 +12791,7 @@
       <c r="P657" s="3"/>
       <c r="Q657" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="658" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -12992,7 +12810,7 @@
       <c r="P658" s="3"/>
       <c r="Q658" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="659" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -13011,7 +12829,7 @@
       <c r="P659" s="3"/>
       <c r="Q659" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="660" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -13030,7 +12848,7 @@
       <c r="P660" s="3"/>
       <c r="Q660" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="661" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -13049,7 +12867,7 @@
       <c r="P661" s="3"/>
       <c r="Q661" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="662" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -13068,7 +12886,7 @@
       <c r="P662" s="3"/>
       <c r="Q662" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="663" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -13087,7 +12905,7 @@
       <c r="P663" s="3"/>
       <c r="Q663" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="664" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -13106,7 +12924,7 @@
       <c r="P664" s="3"/>
       <c r="Q664" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="665" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -13125,7 +12943,7 @@
       <c r="P665" s="3"/>
       <c r="Q665" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="666" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -13144,7 +12962,7 @@
       <c r="P666" s="3"/>
       <c r="Q666" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="667" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -13163,7 +12981,7 @@
       <c r="P667" s="3"/>
       <c r="Q667" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="668" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -13182,7 +13000,7 @@
       <c r="P668" s="3"/>
       <c r="Q668" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="669" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -13201,7 +13019,7 @@
       <c r="P669" s="3"/>
       <c r="Q669" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="670" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -13220,7 +13038,7 @@
       <c r="P670" s="3"/>
       <c r="Q670" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="671" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -13239,7 +13057,7 @@
       <c r="P671" s="3"/>
       <c r="Q671" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="672" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -13258,7 +13076,7 @@
       <c r="P672" s="3"/>
       <c r="Q672" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="673" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -13277,7 +13095,7 @@
       <c r="P673" s="3"/>
       <c r="Q673" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="674" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -13296,7 +13114,7 @@
       <c r="P674" s="3"/>
       <c r="Q674" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="675" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -13315,7 +13133,7 @@
       <c r="P675" s="3"/>
       <c r="Q675" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="676" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -13334,7 +13152,7 @@
       <c r="P676" s="3"/>
       <c r="Q676" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="677" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -13353,7 +13171,7 @@
       <c r="P677" s="3"/>
       <c r="Q677" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="678" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -13372,7 +13190,7 @@
       <c r="P678" s="3"/>
       <c r="Q678" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="679" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -13391,7 +13209,7 @@
       <c r="P679" s="3"/>
       <c r="Q679" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="680" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -13410,7 +13228,7 @@
       <c r="P680" s="3"/>
       <c r="Q680" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="681" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -13429,7 +13247,7 @@
       <c r="P681" s="3"/>
       <c r="Q681" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="682" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -13448,7 +13266,7 @@
       <c r="P682" s="3"/>
       <c r="Q682" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="683" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -13467,7 +13285,7 @@
       <c r="P683" s="3"/>
       <c r="Q683" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="684" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -13486,7 +13304,7 @@
       <c r="P684" s="3"/>
       <c r="Q684" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="685" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -13505,7 +13323,7 @@
       <c r="P685" s="3"/>
       <c r="Q685" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="686" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -13524,7 +13342,7 @@
       <c r="P686" s="3"/>
       <c r="Q686" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="687" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -13543,7 +13361,7 @@
       <c r="P687" s="3"/>
       <c r="Q687" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="688" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -13562,7 +13380,7 @@
       <c r="P688" s="3"/>
       <c r="Q688" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="689" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -13581,7 +13399,7 @@
       <c r="P689" s="3"/>
       <c r="Q689" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="690" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -13600,7 +13418,7 @@
       <c r="P690" s="3"/>
       <c r="Q690" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="691" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -13619,7 +13437,7 @@
       <c r="P691" s="3"/>
       <c r="Q691" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="692" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -13638,7 +13456,7 @@
       <c r="P692" s="3"/>
       <c r="Q692" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="693" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -13657,7 +13475,7 @@
       <c r="P693" s="3"/>
       <c r="Q693" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="694" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -13676,7 +13494,7 @@
       <c r="P694" s="3"/>
       <c r="Q694" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="695" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -13695,7 +13513,7 @@
       <c r="P695" s="3"/>
       <c r="Q695" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="696" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -13714,7 +13532,7 @@
       <c r="P696" s="3"/>
       <c r="Q696" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="697" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -13733,7 +13551,7 @@
       <c r="P697" s="3"/>
       <c r="Q697" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="698" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -13752,7 +13570,7 @@
       <c r="P698" s="3"/>
       <c r="Q698" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="699" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -13771,7 +13589,7 @@
       <c r="P699" s="3"/>
       <c r="Q699" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="700" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -13790,7 +13608,7 @@
       <c r="P700" s="3"/>
       <c r="Q700" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="701" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -13809,7 +13627,7 @@
       <c r="P701" s="3"/>
       <c r="Q701" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="702" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -13828,7 +13646,7 @@
       <c r="P702" s="3"/>
       <c r="Q702" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="703" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -13847,7 +13665,7 @@
       <c r="P703" s="3"/>
       <c r="Q703" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="704" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -13866,7 +13684,7 @@
       <c r="P704" s="3"/>
       <c r="Q704" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="705" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -13885,7 +13703,7 @@
       <c r="P705" s="3"/>
       <c r="Q705" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="706" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -13904,7 +13722,7 @@
       <c r="P706" s="3"/>
       <c r="Q706" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="707" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -13923,7 +13741,7 @@
       <c r="P707" s="3"/>
       <c r="Q707" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="708" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -13942,7 +13760,7 @@
       <c r="P708" s="3"/>
       <c r="Q708" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="709" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -13961,7 +13779,7 @@
       <c r="P709" s="3"/>
       <c r="Q709" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="710" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -13980,7 +13798,7 @@
       <c r="P710" s="3"/>
       <c r="Q710" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="711" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -13999,7 +13817,7 @@
       <c r="P711" s="3"/>
       <c r="Q711" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="712" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -14018,7 +13836,7 @@
       <c r="P712" s="3"/>
       <c r="Q712" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="713" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -14037,7 +13855,7 @@
       <c r="P713" s="3"/>
       <c r="Q713" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="714" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -14056,7 +13874,7 @@
       <c r="P714" s="3"/>
       <c r="Q714" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="715" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -14075,7 +13893,7 @@
       <c r="P715" s="3"/>
       <c r="Q715" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="716" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -14094,7 +13912,7 @@
       <c r="P716" s="3"/>
       <c r="Q716" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="717" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -14113,7 +13931,7 @@
       <c r="P717" s="3"/>
       <c r="Q717" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="718" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -14132,7 +13950,7 @@
       <c r="P718" s="3"/>
       <c r="Q718" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="719" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -14151,7 +13969,7 @@
       <c r="P719" s="3"/>
       <c r="Q719" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="720" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -14170,7 +13988,7 @@
       <c r="P720" s="3"/>
       <c r="Q720" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="721" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -14189,7 +14007,7 @@
       <c r="P721" s="3"/>
       <c r="Q721" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="722" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -14208,7 +14026,7 @@
       <c r="P722" s="3"/>
       <c r="Q722" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="723" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -14227,7 +14045,7 @@
       <c r="P723" s="3"/>
       <c r="Q723" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="724" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -14246,7 +14064,7 @@
       <c r="P724" s="3"/>
       <c r="Q724" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="725" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -14265,7 +14083,7 @@
       <c r="P725" s="3"/>
       <c r="Q725" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="726" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -14284,7 +14102,7 @@
       <c r="P726" s="3"/>
       <c r="Q726" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="727" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -14303,7 +14121,7 @@
       <c r="P727" s="3"/>
       <c r="Q727" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="728" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -14322,7 +14140,7 @@
       <c r="P728" s="3"/>
       <c r="Q728" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="729" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -14341,7 +14159,7 @@
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="730" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -14360,7 +14178,7 @@
       <c r="P730" s="3"/>
       <c r="Q730" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="731" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -14379,7 +14197,7 @@
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="732" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -14398,7 +14216,7 @@
       <c r="P732" s="3"/>
       <c r="Q732" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="733" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -14417,7 +14235,7 @@
       <c r="P733" s="3"/>
       <c r="Q733" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="734" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -14436,7 +14254,7 @@
       <c r="P734" s="3"/>
       <c r="Q734" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="735" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -14455,7 +14273,7 @@
       <c r="P735" s="3"/>
       <c r="Q735" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="736" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -14474,7 +14292,7 @@
       <c r="P736" s="3"/>
       <c r="Q736" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="737" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -14493,7 +14311,7 @@
       <c r="P737" s="3"/>
       <c r="Q737" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="738" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -14512,7 +14330,7 @@
       <c r="P738" s="3"/>
       <c r="Q738" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="739" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -14531,7 +14349,7 @@
       <c r="P739" s="3"/>
       <c r="Q739" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="740" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -14550,7 +14368,7 @@
       <c r="P740" s="3"/>
       <c r="Q740" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="741" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -14569,7 +14387,7 @@
       <c r="P741" s="3"/>
       <c r="Q741" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="742" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -14588,7 +14406,7 @@
       <c r="P742" s="3"/>
       <c r="Q742" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="743" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -14607,7 +14425,7 @@
       <c r="P743" s="3"/>
       <c r="Q743" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="744" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -14626,7 +14444,7 @@
       <c r="P744" s="3"/>
       <c r="Q744" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="745" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -14645,7 +14463,7 @@
       <c r="P745" s="3"/>
       <c r="Q745" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="746" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -14664,7 +14482,7 @@
       <c r="P746" s="3"/>
       <c r="Q746" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="747" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -14683,7 +14501,7 @@
       <c r="P747" s="3"/>
       <c r="Q747" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="748" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -14702,7 +14520,7 @@
       <c r="P748" s="3"/>
       <c r="Q748" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="749" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -14721,7 +14539,7 @@
       <c r="P749" s="3"/>
       <c r="Q749" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="750" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -14740,7 +14558,7 @@
       <c r="P750" s="3"/>
       <c r="Q750" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="751" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -14759,7 +14577,7 @@
       <c r="P751" s="3"/>
       <c r="Q751" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="752" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -14778,7 +14596,7 @@
       <c r="P752" s="3"/>
       <c r="Q752" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="753" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -14797,7 +14615,7 @@
       <c r="P753" s="3"/>
       <c r="Q753" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="754" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -14816,7 +14634,7 @@
       <c r="P754" s="3"/>
       <c r="Q754" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="755" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -14835,7 +14653,7 @@
       <c r="P755" s="3"/>
       <c r="Q755" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="756" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -14854,7 +14672,7 @@
       <c r="P756" s="3"/>
       <c r="Q756" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="757" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -14873,7 +14691,7 @@
       <c r="P757" s="3"/>
       <c r="Q757" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="758" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -14892,7 +14710,7 @@
       <c r="P758" s="3"/>
       <c r="Q758" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="759" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -14911,7 +14729,7 @@
       <c r="P759" s="3"/>
       <c r="Q759" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="760" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -14930,7 +14748,7 @@
       <c r="P760" s="3"/>
       <c r="Q760" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="761" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -14949,7 +14767,7 @@
       <c r="P761" s="3"/>
       <c r="Q761" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="762" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -14968,7 +14786,7 @@
       <c r="P762" s="3"/>
       <c r="Q762" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="763" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -14987,7 +14805,7 @@
       <c r="P763" s="3"/>
       <c r="Q763" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="764" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -15006,7 +14824,7 @@
       <c r="P764" s="3"/>
       <c r="Q764" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="765" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -15025,7 +14843,7 @@
       <c r="P765" s="3"/>
       <c r="Q765" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="766" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -15044,7 +14862,7 @@
       <c r="P766" s="3"/>
       <c r="Q766" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="767" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -15063,7 +14881,7 @@
       <c r="P767" s="3"/>
       <c r="Q767" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="768" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -15082,7 +14900,7 @@
       <c r="P768" s="3"/>
       <c r="Q768" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="769" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -15101,7 +14919,7 @@
       <c r="P769" s="3"/>
       <c r="Q769" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="770" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -15120,7 +14938,7 @@
       <c r="P770" s="3"/>
       <c r="Q770" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="771" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -15139,7 +14957,7 @@
       <c r="P771" s="3"/>
       <c r="Q771" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="772" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -15158,7 +14976,7 @@
       <c r="P772" s="3"/>
       <c r="Q772" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="773" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -15177,7 +14995,7 @@
       <c r="P773" s="3"/>
       <c r="Q773" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="774" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -15196,7 +15014,7 @@
       <c r="P774" s="3"/>
       <c r="Q774" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="775" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -15215,7 +15033,7 @@
       <c r="P775" s="3"/>
       <c r="Q775" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="776" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -15234,7 +15052,7 @@
       <c r="P776" s="3"/>
       <c r="Q776" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="777" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -15253,7 +15071,7 @@
       <c r="P777" s="3"/>
       <c r="Q777" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="778" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -15272,7 +15090,7 @@
       <c r="P778" s="3"/>
       <c r="Q778" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="779" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -15291,7 +15109,7 @@
       <c r="P779" s="3"/>
       <c r="Q779" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="780" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -15310,7 +15128,7 @@
       <c r="P780" s="3"/>
       <c r="Q780" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="781" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -15329,7 +15147,7 @@
       <c r="P781" s="3"/>
       <c r="Q781" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="782" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -15348,7 +15166,7 @@
       <c r="P782" s="3"/>
       <c r="Q782" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="783" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -15367,7 +15185,7 @@
       <c r="P783" s="3"/>
       <c r="Q783" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="784" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -15386,7 +15204,7 @@
       <c r="P784" s="3"/>
       <c r="Q784" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="785" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -15405,7 +15223,7 @@
       <c r="P785" s="3"/>
       <c r="Q785" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="786" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -15424,7 +15242,7 @@
       <c r="P786" s="3"/>
       <c r="Q786" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="787" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -15443,7 +15261,7 @@
       <c r="P787" s="3"/>
       <c r="Q787" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="788" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -15462,7 +15280,7 @@
       <c r="P788" s="3"/>
       <c r="Q788" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="789" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -15481,7 +15299,7 @@
       <c r="P789" s="3"/>
       <c r="Q789" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="790" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -15500,7 +15318,7 @@
       <c r="P790" s="3"/>
       <c r="Q790" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="791" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -15519,7 +15337,7 @@
       <c r="P791" s="3"/>
       <c r="Q791" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="792" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -15538,7 +15356,7 @@
       <c r="P792" s="3"/>
       <c r="Q792" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="793" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -15557,7 +15375,7 @@
       <c r="P793" s="3"/>
       <c r="Q793" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="794" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -15576,7 +15394,7 @@
       <c r="P794" s="3"/>
       <c r="Q794" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="795" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -15595,7 +15413,7 @@
       <c r="P795" s="3"/>
       <c r="Q795" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="796" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -15614,7 +15432,7 @@
       <c r="P796" s="3"/>
       <c r="Q796" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="797" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -15633,7 +15451,7 @@
       <c r="P797" s="3"/>
       <c r="Q797" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="798" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -15652,7 +15470,7 @@
       <c r="P798" s="3"/>
       <c r="Q798" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="799" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -15671,7 +15489,7 @@
       <c r="P799" s="3"/>
       <c r="Q799" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="800" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -15690,7 +15508,7 @@
       <c r="P800" s="3"/>
       <c r="Q800" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="801" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -15709,7 +15527,7 @@
       <c r="P801" s="3"/>
       <c r="Q801" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="802" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -15728,7 +15546,7 @@
       <c r="P802" s="3"/>
       <c r="Q802" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="803" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -15747,7 +15565,7 @@
       <c r="P803" s="3"/>
       <c r="Q803" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="804" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -15766,7 +15584,7 @@
       <c r="P804" s="3"/>
       <c r="Q804" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="805" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -15785,7 +15603,7 @@
       <c r="P805" s="3"/>
       <c r="Q805" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="806" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -15804,7 +15622,7 @@
       <c r="P806" s="3"/>
       <c r="Q806" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="807" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -15823,7 +15641,7 @@
       <c r="P807" s="3"/>
       <c r="Q807" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="808" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -15842,7 +15660,7 @@
       <c r="P808" s="3"/>
       <c r="Q808" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="809" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -15861,7 +15679,7 @@
       <c r="P809" s="3"/>
       <c r="Q809" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="810" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -15880,7 +15698,7 @@
       <c r="P810" s="3"/>
       <c r="Q810" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="811" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -15899,7 +15717,7 @@
       <c r="P811" s="3"/>
       <c r="Q811" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="812" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -15918,7 +15736,7 @@
       <c r="P812" s="3"/>
       <c r="Q812" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="813" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -15937,7 +15755,7 @@
       <c r="P813" s="3"/>
       <c r="Q813" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="814" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -15956,7 +15774,7 @@
       <c r="P814" s="3"/>
       <c r="Q814" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="815" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -15975,7 +15793,7 @@
       <c r="P815" s="3"/>
       <c r="Q815" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="816" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -15994,7 +15812,7 @@
       <c r="P816" s="3"/>
       <c r="Q816" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="817" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -16013,7 +15831,7 @@
       <c r="P817" s="3"/>
       <c r="Q817" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="818" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -16032,7 +15850,7 @@
       <c r="P818" s="3"/>
       <c r="Q818" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="819" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -16051,7 +15869,7 @@
       <c r="P819" s="3"/>
       <c r="Q819" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="820" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -16070,7 +15888,7 @@
       <c r="P820" s="3"/>
       <c r="Q820" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="821" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -16089,7 +15907,7 @@
       <c r="P821" s="3"/>
       <c r="Q821" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="822" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -16108,7 +15926,7 @@
       <c r="P822" s="3"/>
       <c r="Q822" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="823" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -16127,7 +15945,7 @@
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="824" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -16146,7 +15964,7 @@
       <c r="P824" s="3"/>
       <c r="Q824" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="825" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -16165,7 +15983,7 @@
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="826" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -16184,7 +16002,7 @@
       <c r="P826" s="3"/>
       <c r="Q826" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="827" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -16203,7 +16021,7 @@
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="828" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -16222,7 +16040,7 @@
       <c r="P828" s="3"/>
       <c r="Q828" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="829" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -16241,7 +16059,7 @@
       <c r="P829" s="3"/>
       <c r="Q829" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="830" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -16260,7 +16078,7 @@
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="831" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -16279,7 +16097,7 @@
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="832" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -16298,7 +16116,7 @@
       <c r="P832" s="3"/>
       <c r="Q832" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="833" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -16317,7 +16135,7 @@
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="834" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -16336,7 +16154,7 @@
       <c r="P834" s="3"/>
       <c r="Q834" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="835" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -16355,7 +16173,7 @@
       <c r="P835" s="3"/>
       <c r="Q835" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="836" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -16374,7 +16192,7 @@
       <c r="P836" s="3"/>
       <c r="Q836" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="837" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -16393,7 +16211,7 @@
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="838" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -16412,7 +16230,7 @@
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="839" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -16431,7 +16249,7 @@
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="840" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -16450,7 +16268,7 @@
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="841" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -16469,7 +16287,7 @@
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="842" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -16488,7 +16306,7 @@
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="843" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -16507,7 +16325,7 @@
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="844" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -16526,7 +16344,7 @@
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="845" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -16545,7 +16363,7 @@
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="846" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -16564,7 +16382,7 @@
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="847" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -16583,7 +16401,7 @@
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="848" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -16602,7 +16420,7 @@
       <c r="P848" s="3"/>
       <c r="Q848" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="849" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -16621,7 +16439,7 @@
       <c r="P849" s="3"/>
       <c r="Q849" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="850" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -16640,7 +16458,7 @@
       <c r="P850" s="3"/>
       <c r="Q850" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="851" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -16659,7 +16477,7 @@
       <c r="P851" s="3"/>
       <c r="Q851" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="852" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -16678,7 +16496,7 @@
       <c r="P852" s="3"/>
       <c r="Q852" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="853" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -16697,7 +16515,7 @@
       <c r="P853" s="3"/>
       <c r="Q853" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="854" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -16716,7 +16534,7 @@
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="855" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -16735,7 +16553,7 @@
       <c r="P855" s="3"/>
       <c r="Q855" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="856" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -16754,45 +16572,51 @@
       <c r="P856" s="3"/>
       <c r="Q856" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="16.5">
-      <c r="A857" s="7"/>
-      <c r="B857" s="7"/>
-      <c r="C857" s="7"/>
-      <c r="D857" s="7"/>
-      <c r="E857" s="7"/>
-      <c r="F857" s="7"/>
-      <c r="G857" s="7"/>
-      <c r="H857" s="7"/>
-      <c r="I857" s="7"/>
-      <c r="J857" s="7"/>
-      <c r="K857" s="7"/>
-      <c r="L857" s="7"/>
-      <c r="M857" s="7"/>
-      <c r="N857" s="7"/>
-      <c r="O857" s="7"/>
-      <c r="P857" s="7"/>
-      <c r="Q857" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
-      <c r="A858" s="7"/>
-      <c r="B858" s="7"/>
-      <c r="C858" s="7"/>
-      <c r="D858" s="7"/>
-      <c r="E858" s="7"/>
-      <c r="F858" s="7"/>
-      <c r="G858" s="7"/>
-      <c r="H858" s="7"/>
-      <c r="I858" s="7"/>
-      <c r="J858" s="7"/>
-      <c r="K858" s="7"/>
-      <c r="L858" s="7"/>
-      <c r="M858" s="7"/>
-      <c r="N858" s="7"/>
-      <c r="O858" s="7"/>
-      <c r="P858" s="7"/>
-      <c r="Q858" s="7"/>
+    <row r="857" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
+      <c r="C857" s="8"/>
+      <c r="D857" s="8"/>
+      <c r="E857" s="8"/>
+      <c r="F857" s="8"/>
+      <c r="G857" s="8"/>
+      <c r="H857" s="8"/>
+      <c r="I857" s="8"/>
+      <c r="J857" s="8"/>
+      <c r="K857" s="8"/>
+      <c r="L857" s="8"/>
+      <c r="M857" s="8"/>
+      <c r="N857" s="8"/>
+      <c r="O857" s="8"/>
+      <c r="P857" s="8"/>
+      <c r="Q857" s="8"/>
+    </row>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="8"/>
+      <c r="B858" s="8"/>
+      <c r="C858" s="8"/>
+      <c r="D858" s="8"/>
+      <c r="E858" s="8"/>
+      <c r="F858" s="8"/>
+      <c r="G858" s="8"/>
+      <c r="H858" s="8"/>
+      <c r="I858" s="8"/>
+      <c r="J858" s="8"/>
+      <c r="K858" s="8"/>
+      <c r="L858" s="8"/>
+      <c r="M858" s="8"/>
+      <c r="N858" s="8"/>
+      <c r="O858" s="8"/>
+      <c r="P858" s="8"/>
+      <c r="Q858" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/input_data/data_errors_04/cenarios.xlsx
+++ b/input_data/data_errors_04/cenarios.xlsx
@@ -1,97 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="descricao" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="descricao"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">nome</t>
+    <t>nome</t>
   </si>
   <si>
-    <t xml:space="preserve">descricao</t>
+    <t>descricao</t>
   </si>
   <si>
-    <t xml:space="preserve">simbolo</t>
+    <t>simbolo</t>
   </si>
   <si>
-    <t xml:space="preserve">COLUNA _A</t>
+    <t>Otimista</t>
   </si>
   <si>
-    <t xml:space="preserve">Otimista|</t>
+    <t>Este cenário representa uma visão mais otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Este cenário representa uma visão mais 
-otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
+    <t>O</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t>Pessimista</t>
   </si>
   <si>
-    <t xml:space="preserve">Pessimista</t>
+    <t>Este cenário representa uma visão mais pessimista, sendo baseado em um maior crescimento populacional, maior desmatamento, maior consumo etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Este cenário representa uma visão mais 
-otimista, sendo |baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -103,192 +79,400 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFffe699"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC6C6C6"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q858"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="4" style="1" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.86"/>
+    <col min="1" max="1" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.649999999999995" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -298,9 +482,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -315,15 +497,15 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -340,15 +522,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -365,9 +547,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -384,9 +566,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -403,8 +585,8 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -422,8 +604,8 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -441,8 +623,8 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="134.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -460,8 +642,8 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -479,8 +661,8 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72.75">
+      <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -498,8 +680,8 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
+      <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -517,8 +699,8 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="67.5">
+      <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -536,8 +718,8 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="59.25">
+      <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -555,8 +737,8 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
+      <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -574,7 +756,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -593,7 +775,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -612,7 +794,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -631,7 +813,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -650,7 +832,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -669,7 +851,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -688,7 +870,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -707,7 +889,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -726,7 +908,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -745,7 +927,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -764,7 +946,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -783,7 +965,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -802,7 +984,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -821,7 +1003,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -840,7 +1022,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -859,7 +1041,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -878,7 +1060,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -897,7 +1079,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -916,7 +1098,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -935,7 +1117,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -954,7 +1136,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -973,7 +1155,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -992,7 +1174,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1011,7 +1193,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1030,7 +1212,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1049,7 +1231,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1068,7 +1250,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1087,7 +1269,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1106,7 +1288,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1125,7 +1307,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1144,7 +1326,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1163,7 +1345,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1182,7 +1364,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1201,7 +1383,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1220,7 +1402,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1239,7 +1421,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1258,7 +1440,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1277,7 +1459,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1296,7 +1478,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1315,7 +1497,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1334,7 +1516,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1353,7 +1535,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1372,7 +1554,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1391,7 +1573,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1410,7 +1592,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1429,7 +1611,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1448,7 +1630,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1467,7 +1649,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1486,7 +1668,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1505,7 +1687,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1524,7 +1706,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1543,7 +1725,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1562,7 +1744,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1581,7 +1763,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1600,7 +1782,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1619,7 +1801,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1638,7 +1820,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1657,7 +1839,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1676,7 +1858,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1695,7 +1877,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1714,7 +1896,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1733,7 +1915,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1752,7 +1934,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1771,7 +1953,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1790,7 +1972,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1809,7 +1991,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1828,7 +2010,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1847,7 +2029,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1866,7 +2048,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1885,7 +2067,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1904,7 +2086,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1923,7 +2105,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1942,7 +2124,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1961,7 +2143,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1980,7 +2162,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1999,7 +2181,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2018,7 +2200,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2037,7 +2219,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2056,7 +2238,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2075,7 +2257,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2094,7 +2276,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2113,7 +2295,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2132,7 +2314,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2151,7 +2333,7 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2170,7 +2352,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2189,7 +2371,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2208,7 +2390,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2227,7 +2409,7 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2246,7 +2428,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2265,7 +2447,7 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2284,7 +2466,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2303,7 +2485,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2322,7 +2504,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2341,7 +2523,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2360,7 +2542,7 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2379,7 +2561,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2398,7 +2580,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2417,7 +2599,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2436,7 +2618,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2455,7 +2637,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2474,7 +2656,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2493,7 +2675,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2512,7 +2694,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2531,7 +2713,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2550,7 +2732,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2569,7 +2751,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2588,7 +2770,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2607,7 +2789,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2626,7 +2808,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2645,7 +2827,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2664,7 +2846,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2683,7 +2865,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2702,7 +2884,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2721,7 +2903,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2740,7 +2922,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2759,7 +2941,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2778,7 +2960,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2797,7 +2979,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2816,7 +2998,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2835,7 +3017,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2854,7 +3036,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2873,7 +3055,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2892,7 +3074,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2911,7 +3093,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2930,7 +3112,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2949,7 +3131,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2968,7 +3150,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2987,7 +3169,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3006,7 +3188,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row r="143" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3025,7 +3207,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3044,7 +3226,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row r="145" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3063,7 +3245,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row r="146" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3082,7 +3264,7 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
     </row>
-    <row r="147" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3101,7 +3283,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3120,7 +3302,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
     </row>
-    <row r="149" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3139,7 +3321,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row r="150" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3158,7 +3340,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
     </row>
-    <row r="151" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3177,7 +3359,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
     </row>
-    <row r="152" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3196,7 +3378,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
     </row>
-    <row r="153" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3215,7 +3397,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3234,7 +3416,7 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
     </row>
-    <row r="155" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3253,7 +3435,7 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
     </row>
-    <row r="156" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3272,7 +3454,7 @@
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
     </row>
-    <row r="157" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3291,7 +3473,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row r="158" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3310,7 +3492,7 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
     </row>
-    <row r="159" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3329,7 +3511,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
     </row>
-    <row r="160" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3348,7 +3530,7 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
     </row>
-    <row r="161" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3367,7 +3549,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
     </row>
-    <row r="162" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3386,7 +3568,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
     </row>
-    <row r="163" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3405,7 +3587,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row r="164" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3424,7 +3606,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
     </row>
-    <row r="165" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3443,7 +3625,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
     </row>
-    <row r="166" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3462,7 +3644,7 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
     </row>
-    <row r="167" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3481,7 +3663,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
     </row>
-    <row r="168" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3500,7 +3682,7 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
     </row>
-    <row r="169" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3519,7 +3701,7 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
     </row>
-    <row r="170" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3538,7 +3720,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
     </row>
-    <row r="171" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3557,7 +3739,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
     </row>
-    <row r="172" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3576,7 +3758,7 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
     </row>
-    <row r="173" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3595,7 +3777,7 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
-    <row r="174" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3614,7 +3796,7 @@
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
     </row>
-    <row r="175" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3633,7 +3815,7 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
     </row>
-    <row r="176" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3652,7 +3834,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
     </row>
-    <row r="177" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3671,7 +3853,7 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3690,7 +3872,7 @@
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
     </row>
-    <row r="179" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3709,7 +3891,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
     </row>
-    <row r="180" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3728,7 +3910,7 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
     </row>
-    <row r="181" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3747,7 +3929,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
     </row>
-    <row r="182" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3766,7 +3948,7 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
     </row>
-    <row r="183" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3785,7 +3967,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
     </row>
-    <row r="184" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3804,7 +3986,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
     </row>
-    <row r="185" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3823,7 +4005,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
     </row>
-    <row r="186" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3842,7 +4024,7 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
     </row>
-    <row r="187" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3861,7 +4043,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
     </row>
-    <row r="188" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3880,7 +4062,7 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
     </row>
-    <row r="189" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3899,7 +4081,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
     </row>
-    <row r="190" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3918,7 +4100,7 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
     </row>
-    <row r="191" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3937,7 +4119,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
     </row>
-    <row r="192" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3956,7 +4138,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
     </row>
-    <row r="193" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3975,7 +4157,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
-    <row r="194" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3994,7 +4176,7 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
     </row>
-    <row r="195" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4013,7 +4195,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
     </row>
-    <row r="196" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4032,7 +4214,7 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
     </row>
-    <row r="197" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4051,7 +4233,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
     </row>
-    <row r="198" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4070,7 +4252,7 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
     </row>
-    <row r="199" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4089,7 +4271,7 @@
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
     </row>
-    <row r="200" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4108,7 +4290,7 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
     </row>
-    <row r="201" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4127,7 +4309,7 @@
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
     </row>
-    <row r="202" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4146,7 +4328,7 @@
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
     </row>
-    <row r="203" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4165,7 +4347,7 @@
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
     </row>
-    <row r="204" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4184,7 +4366,7 @@
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
     </row>
-    <row r="205" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4203,7 +4385,7 @@
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
     </row>
-    <row r="206" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4222,7 +4404,7 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
     </row>
-    <row r="207" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4241,7 +4423,7 @@
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
     </row>
-    <row r="208" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4260,7 +4442,7 @@
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
     </row>
-    <row r="209" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4279,7 +4461,7 @@
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
     </row>
-    <row r="210" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4298,7 +4480,7 @@
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
     </row>
-    <row r="211" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4317,7 +4499,7 @@
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
     </row>
-    <row r="212" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4336,7 +4518,7 @@
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
     </row>
-    <row r="213" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4355,7 +4537,7 @@
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
     </row>
-    <row r="214" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4374,7 +4556,7 @@
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
     </row>
-    <row r="215" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4393,7 +4575,7 @@
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
     </row>
-    <row r="216" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4412,7 +4594,7 @@
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
     </row>
-    <row r="217" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4431,7 +4613,7 @@
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
     </row>
-    <row r="218" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4450,7 +4632,7 @@
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
     </row>
-    <row r="219" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4469,7 +4651,7 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
     </row>
-    <row r="220" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4488,7 +4670,7 @@
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
     </row>
-    <row r="221" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4507,7 +4689,7 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
     </row>
-    <row r="222" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4526,7 +4708,7 @@
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
     </row>
-    <row r="223" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4545,7 +4727,7 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
     </row>
-    <row r="224" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4564,7 +4746,7 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
     </row>
-    <row r="225" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4583,7 +4765,7 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
     </row>
-    <row r="226" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4602,7 +4784,7 @@
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
     </row>
-    <row r="227" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4621,7 +4803,7 @@
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
     </row>
-    <row r="228" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4640,7 +4822,7 @@
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
     </row>
-    <row r="229" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4659,7 +4841,7 @@
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
     </row>
-    <row r="230" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4678,7 +4860,7 @@
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
     </row>
-    <row r="231" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4697,7 +4879,7 @@
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
     </row>
-    <row r="232" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4716,7 +4898,7 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
     </row>
-    <row r="233" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -4735,7 +4917,7 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
     </row>
-    <row r="234" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -4754,7 +4936,7 @@
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
     </row>
-    <row r="235" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -4773,7 +4955,7 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
     </row>
-    <row r="236" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -4792,7 +4974,7 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
     </row>
-    <row r="237" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -4811,7 +4993,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row r="238" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -4830,7 +5012,7 @@
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
     </row>
-    <row r="239" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -4849,7 +5031,7 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
     </row>
-    <row r="240" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4868,7 +5050,7 @@
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
     </row>
-    <row r="241" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4887,7 +5069,7 @@
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
     </row>
-    <row r="242" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4906,7 +5088,7 @@
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
     </row>
-    <row r="243" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4925,7 +5107,7 @@
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
     </row>
-    <row r="244" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4944,7 +5126,7 @@
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
     </row>
-    <row r="245" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4963,7 +5145,7 @@
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
     </row>
-    <row r="246" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4982,7 +5164,7 @@
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
     </row>
-    <row r="247" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5001,7 +5183,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5020,7 +5202,7 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
     </row>
-    <row r="249" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5039,7 +5221,7 @@
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
     </row>
-    <row r="250" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5058,7 +5240,7 @@
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
     </row>
-    <row r="251" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5077,7 +5259,7 @@
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
     </row>
-    <row r="252" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5096,7 +5278,7 @@
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
     </row>
-    <row r="253" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -5115,7 +5297,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row r="254" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5134,7 +5316,7 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
     </row>
-    <row r="255" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5153,7 +5335,7 @@
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
     </row>
-    <row r="256" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5172,7 +5354,7 @@
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
     </row>
-    <row r="257" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5191,7 +5373,7 @@
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
     </row>
-    <row r="258" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5210,7 +5392,7 @@
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
     </row>
-    <row r="259" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -5229,7 +5411,7 @@
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
     </row>
-    <row r="260" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -5248,7 +5430,7 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
     </row>
-    <row r="261" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -5267,7 +5449,7 @@
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
     </row>
-    <row r="262" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -5286,7 +5468,7 @@
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
     </row>
-    <row r="263" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -5305,7 +5487,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row r="264" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -5324,7 +5506,7 @@
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
     </row>
-    <row r="265" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -5343,7 +5525,7 @@
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
     </row>
-    <row r="266" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -5362,7 +5544,7 @@
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
     </row>
-    <row r="267" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -5381,7 +5563,7 @@
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
     </row>
-    <row r="268" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5400,7 +5582,7 @@
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
     </row>
-    <row r="269" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -5419,7 +5601,7 @@
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
     </row>
-    <row r="270" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -5438,7 +5620,7 @@
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
     </row>
-    <row r="271" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5457,7 +5639,7 @@
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
     </row>
-    <row r="272" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5476,7 +5658,7 @@
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
     </row>
-    <row r="273" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5495,7 +5677,7 @@
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
     </row>
-    <row r="274" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -5514,7 +5696,7 @@
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
     </row>
-    <row r="275" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -5533,7 +5715,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
     </row>
-    <row r="276" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5552,7 +5734,7 @@
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
     </row>
-    <row r="277" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5571,7 +5753,7 @@
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
     </row>
-    <row r="278" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5590,7 +5772,7 @@
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
     </row>
-    <row r="279" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5609,7 +5791,7 @@
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
     </row>
-    <row r="280" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5628,7 +5810,7 @@
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
     </row>
-    <row r="281" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5647,7 +5829,7 @@
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
     </row>
-    <row r="282" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -5666,7 +5848,7 @@
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
     </row>
-    <row r="283" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -5685,7 +5867,7 @@
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
     </row>
-    <row r="284" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5704,7 +5886,7 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
     </row>
-    <row r="285" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5723,7 +5905,7 @@
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
     </row>
-    <row r="286" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5742,7 +5924,7 @@
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
     </row>
-    <row r="287" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5761,7 +5943,7 @@
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
     </row>
-    <row r="288" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5780,7 +5962,7 @@
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
     </row>
-    <row r="289" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -5799,7 +5981,7 @@
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
     </row>
-    <row r="290" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -5818,7 +6000,7 @@
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
     </row>
-    <row r="291" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -5837,7 +6019,7 @@
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
     </row>
-    <row r="292" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -5856,7 +6038,7 @@
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
     </row>
-    <row r="293" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -5875,7 +6057,7 @@
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
     </row>
-    <row r="294" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -5894,7 +6076,7 @@
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
     </row>
-    <row r="295" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -5913,7 +6095,7 @@
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
     </row>
-    <row r="296" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -5932,7 +6114,7 @@
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
     </row>
-    <row r="297" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -5951,7 +6133,7 @@
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
     </row>
-    <row r="298" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -5970,7 +6152,7 @@
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
     </row>
-    <row r="299" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -5989,7 +6171,7 @@
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
     </row>
-    <row r="300" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -6008,7 +6190,7 @@
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
     </row>
-    <row r="301" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -6027,7 +6209,7 @@
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
     </row>
-    <row r="302" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -6046,7 +6228,7 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
     </row>
-    <row r="303" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -6065,7 +6247,7 @@
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
     </row>
-    <row r="304" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -6084,7 +6266,7 @@
       <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
     </row>
-    <row r="305" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6103,7 +6285,7 @@
       <c r="P305" s="3"/>
       <c r="Q305" s="3"/>
     </row>
-    <row r="306" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6122,7 +6304,7 @@
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
     </row>
-    <row r="307" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -6141,7 +6323,7 @@
       <c r="P307" s="3"/>
       <c r="Q307" s="3"/>
     </row>
-    <row r="308" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -6160,7 +6342,7 @@
       <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
     </row>
-    <row r="309" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -6179,7 +6361,7 @@
       <c r="P309" s="3"/>
       <c r="Q309" s="3"/>
     </row>
-    <row r="310" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -6198,7 +6380,7 @@
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
     </row>
-    <row r="311" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -6217,7 +6399,7 @@
       <c r="P311" s="3"/>
       <c r="Q311" s="3"/>
     </row>
-    <row r="312" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -6236,7 +6418,7 @@
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
     </row>
-    <row r="313" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -6255,7 +6437,7 @@
       <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
     </row>
-    <row r="314" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -6274,7 +6456,7 @@
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
     </row>
-    <row r="315" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -6293,7 +6475,7 @@
       <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
     </row>
-    <row r="316" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -6312,7 +6494,7 @@
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
     </row>
-    <row r="317" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -6331,7 +6513,7 @@
       <c r="P317" s="3"/>
       <c r="Q317" s="3"/>
     </row>
-    <row r="318" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -6350,7 +6532,7 @@
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
     </row>
-    <row r="319" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -6369,7 +6551,7 @@
       <c r="P319" s="3"/>
       <c r="Q319" s="3"/>
     </row>
-    <row r="320" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -6388,7 +6570,7 @@
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
     </row>
-    <row r="321" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -6407,7 +6589,7 @@
       <c r="P321" s="3"/>
       <c r="Q321" s="3"/>
     </row>
-    <row r="322" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -6426,7 +6608,7 @@
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
     </row>
-    <row r="323" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -6445,7 +6627,7 @@
       <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
     </row>
-    <row r="324" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -6464,7 +6646,7 @@
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
     </row>
-    <row r="325" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -6483,7 +6665,7 @@
       <c r="P325" s="3"/>
       <c r="Q325" s="3"/>
     </row>
-    <row r="326" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -6502,7 +6684,7 @@
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
     </row>
-    <row r="327" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -6521,7 +6703,7 @@
       <c r="P327" s="3"/>
       <c r="Q327" s="3"/>
     </row>
-    <row r="328" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -6540,7 +6722,7 @@
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
     </row>
-    <row r="329" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -6559,7 +6741,7 @@
       <c r="P329" s="3"/>
       <c r="Q329" s="3"/>
     </row>
-    <row r="330" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -6578,7 +6760,7 @@
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
     </row>
-    <row r="331" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -6597,7 +6779,7 @@
       <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
     </row>
-    <row r="332" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -6616,7 +6798,7 @@
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
     </row>
-    <row r="333" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -6635,7 +6817,7 @@
       <c r="P333" s="3"/>
       <c r="Q333" s="3"/>
     </row>
-    <row r="334" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -6654,7 +6836,7 @@
       <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
     </row>
-    <row r="335" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -6673,7 +6855,7 @@
       <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
     </row>
-    <row r="336" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6692,7 +6874,7 @@
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
     </row>
-    <row r="337" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6711,7 +6893,7 @@
       <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
     </row>
-    <row r="338" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6730,7 +6912,7 @@
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
     </row>
-    <row r="339" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -6749,7 +6931,7 @@
       <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
     </row>
-    <row r="340" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -6768,7 +6950,7 @@
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
     </row>
-    <row r="341" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6787,7 +6969,7 @@
       <c r="P341" s="3"/>
       <c r="Q341" s="3"/>
     </row>
-    <row r="342" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6806,7 +6988,7 @@
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
     </row>
-    <row r="343" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -6825,7 +7007,7 @@
       <c r="P343" s="3"/>
       <c r="Q343" s="3"/>
     </row>
-    <row r="344" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -6844,7 +7026,7 @@
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
     </row>
-    <row r="345" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -6863,7 +7045,7 @@
       <c r="P345" s="3"/>
       <c r="Q345" s="3"/>
     </row>
-    <row r="346" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -6882,7 +7064,7 @@
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
     </row>
-    <row r="347" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -6901,7 +7083,7 @@
       <c r="P347" s="3"/>
       <c r="Q347" s="3"/>
     </row>
-    <row r="348" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -6920,7 +7102,7 @@
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
     </row>
-    <row r="349" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -6939,7 +7121,7 @@
       <c r="P349" s="3"/>
       <c r="Q349" s="3"/>
     </row>
-    <row r="350" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -6958,7 +7140,7 @@
       <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
     </row>
-    <row r="351" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -6977,7 +7159,7 @@
       <c r="P351" s="3"/>
       <c r="Q351" s="3"/>
     </row>
-    <row r="352" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -6996,7 +7178,7 @@
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
     </row>
-    <row r="353" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -7015,7 +7197,7 @@
       <c r="P353" s="3"/>
       <c r="Q353" s="3"/>
     </row>
-    <row r="354" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -7034,7 +7216,7 @@
       <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
     </row>
-    <row r="355" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -7053,7 +7235,7 @@
       <c r="P355" s="3"/>
       <c r="Q355" s="3"/>
     </row>
-    <row r="356" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -7072,7 +7254,7 @@
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
     </row>
-    <row r="357" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -7091,7 +7273,7 @@
       <c r="P357" s="3"/>
       <c r="Q357" s="3"/>
     </row>
-    <row r="358" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -7110,7 +7292,7 @@
       <c r="P358" s="3"/>
       <c r="Q358" s="3"/>
     </row>
-    <row r="359" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -7129,7 +7311,7 @@
       <c r="P359" s="3"/>
       <c r="Q359" s="3"/>
     </row>
-    <row r="360" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -7148,7 +7330,7 @@
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
     </row>
-    <row r="361" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -7167,7 +7349,7 @@
       <c r="P361" s="3"/>
       <c r="Q361" s="3"/>
     </row>
-    <row r="362" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -7186,7 +7368,7 @@
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
     </row>
-    <row r="363" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -7205,7 +7387,7 @@
       <c r="P363" s="3"/>
       <c r="Q363" s="3"/>
     </row>
-    <row r="364" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -7224,7 +7406,7 @@
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
     </row>
-    <row r="365" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -7243,7 +7425,7 @@
       <c r="P365" s="3"/>
       <c r="Q365" s="3"/>
     </row>
-    <row r="366" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -7262,7 +7444,7 @@
       <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
     </row>
-    <row r="367" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -7281,7 +7463,7 @@
       <c r="P367" s="3"/>
       <c r="Q367" s="3"/>
     </row>
-    <row r="368" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -7300,7 +7482,7 @@
       <c r="P368" s="3"/>
       <c r="Q368" s="3"/>
     </row>
-    <row r="369" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -7319,7 +7501,7 @@
       <c r="P369" s="3"/>
       <c r="Q369" s="3"/>
     </row>
-    <row r="370" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -7338,7 +7520,7 @@
       <c r="P370" s="3"/>
       <c r="Q370" s="3"/>
     </row>
-    <row r="371" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -7357,7 +7539,7 @@
       <c r="P371" s="3"/>
       <c r="Q371" s="3"/>
     </row>
-    <row r="372" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -7376,7 +7558,7 @@
       <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
     </row>
-    <row r="373" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -7395,7 +7577,7 @@
       <c r="P373" s="3"/>
       <c r="Q373" s="3"/>
     </row>
-    <row r="374" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -7414,7 +7596,7 @@
       <c r="P374" s="3"/>
       <c r="Q374" s="3"/>
     </row>
-    <row r="375" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -7433,7 +7615,7 @@
       <c r="P375" s="3"/>
       <c r="Q375" s="3"/>
     </row>
-    <row r="376" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -7452,7 +7634,7 @@
       <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
     </row>
-    <row r="377" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -7471,7 +7653,7 @@
       <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
     </row>
-    <row r="378" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -7490,7 +7672,7 @@
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
     </row>
-    <row r="379" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -7509,7 +7691,7 @@
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
     </row>
-    <row r="380" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -7528,7 +7710,7 @@
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
     </row>
-    <row r="381" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -7547,7 +7729,7 @@
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
     </row>
-    <row r="382" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -7566,7 +7748,7 @@
       <c r="P382" s="3"/>
       <c r="Q382" s="3"/>
     </row>
-    <row r="383" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -7585,7 +7767,7 @@
       <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
     </row>
-    <row r="384" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -7604,7 +7786,7 @@
       <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
     </row>
-    <row r="385" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -7623,7 +7805,7 @@
       <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
     </row>
-    <row r="386" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -7642,7 +7824,7 @@
       <c r="P386" s="3"/>
       <c r="Q386" s="3"/>
     </row>
-    <row r="387" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -7661,7 +7843,7 @@
       <c r="P387" s="3"/>
       <c r="Q387" s="3"/>
     </row>
-    <row r="388" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -7680,7 +7862,7 @@
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
     </row>
-    <row r="389" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -7699,7 +7881,7 @@
       <c r="P389" s="3"/>
       <c r="Q389" s="3"/>
     </row>
-    <row r="390" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -7718,7 +7900,7 @@
       <c r="P390" s="3"/>
       <c r="Q390" s="3"/>
     </row>
-    <row r="391" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -7737,7 +7919,7 @@
       <c r="P391" s="3"/>
       <c r="Q391" s="3"/>
     </row>
-    <row r="392" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -7756,7 +7938,7 @@
       <c r="P392" s="3"/>
       <c r="Q392" s="3"/>
     </row>
-    <row r="393" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -7775,7 +7957,7 @@
       <c r="P393" s="3"/>
       <c r="Q393" s="3"/>
     </row>
-    <row r="394" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -7794,7 +7976,7 @@
       <c r="P394" s="3"/>
       <c r="Q394" s="3"/>
     </row>
-    <row r="395" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -7813,7 +7995,7 @@
       <c r="P395" s="3"/>
       <c r="Q395" s="3"/>
     </row>
-    <row r="396" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -7832,7 +8014,7 @@
       <c r="P396" s="3"/>
       <c r="Q396" s="3"/>
     </row>
-    <row r="397" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -7851,7 +8033,7 @@
       <c r="P397" s="3"/>
       <c r="Q397" s="3"/>
     </row>
-    <row r="398" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -7870,7 +8052,7 @@
       <c r="P398" s="3"/>
       <c r="Q398" s="3"/>
     </row>
-    <row r="399" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -7889,7 +8071,7 @@
       <c r="P399" s="3"/>
       <c r="Q399" s="3"/>
     </row>
-    <row r="400" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -7908,7 +8090,7 @@
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
     </row>
-    <row r="401" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -7927,7 +8109,7 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
     </row>
-    <row r="402" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -7946,7 +8128,7 @@
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
     </row>
-    <row r="403" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -7965,7 +8147,7 @@
       <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
     </row>
-    <row r="404" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -7984,7 +8166,7 @@
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
     </row>
-    <row r="405" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -8003,7 +8185,7 @@
       <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
     </row>
-    <row r="406" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -8022,7 +8204,7 @@
       <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
     </row>
-    <row r="407" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -8041,7 +8223,7 @@
       <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
     </row>
-    <row r="408" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -8060,7 +8242,7 @@
       <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
     </row>
-    <row r="409" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -8079,7 +8261,7 @@
       <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
     </row>
-    <row r="410" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -8098,7 +8280,7 @@
       <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
     </row>
-    <row r="411" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -8117,7 +8299,7 @@
       <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
     </row>
-    <row r="412" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -8136,7 +8318,7 @@
       <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
     </row>
-    <row r="413" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -8155,7 +8337,7 @@
       <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
     </row>
-    <row r="414" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -8174,7 +8356,7 @@
       <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
     </row>
-    <row r="415" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -8193,7 +8375,7 @@
       <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
     </row>
-    <row r="416" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -8212,7 +8394,7 @@
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
     </row>
-    <row r="417" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -8231,7 +8413,7 @@
       <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
     </row>
-    <row r="418" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -8250,7 +8432,7 @@
       <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
     </row>
-    <row r="419" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -8269,7 +8451,7 @@
       <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
     </row>
-    <row r="420" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -8288,7 +8470,7 @@
       <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
     </row>
-    <row r="421" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -8307,7 +8489,7 @@
       <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
     </row>
-    <row r="422" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -8326,7 +8508,7 @@
       <c r="P422" s="3"/>
       <c r="Q422" s="3"/>
     </row>
-    <row r="423" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -8345,7 +8527,7 @@
       <c r="P423" s="3"/>
       <c r="Q423" s="3"/>
     </row>
-    <row r="424" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -8364,7 +8546,7 @@
       <c r="P424" s="3"/>
       <c r="Q424" s="3"/>
     </row>
-    <row r="425" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -8383,7 +8565,7 @@
       <c r="P425" s="3"/>
       <c r="Q425" s="3"/>
     </row>
-    <row r="426" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -8402,7 +8584,7 @@
       <c r="P426" s="3"/>
       <c r="Q426" s="3"/>
     </row>
-    <row r="427" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -8421,7 +8603,7 @@
       <c r="P427" s="3"/>
       <c r="Q427" s="3"/>
     </row>
-    <row r="428" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -8440,7 +8622,7 @@
       <c r="P428" s="3"/>
       <c r="Q428" s="3"/>
     </row>
-    <row r="429" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -8459,7 +8641,7 @@
       <c r="P429" s="3"/>
       <c r="Q429" s="3"/>
     </row>
-    <row r="430" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -8478,7 +8660,7 @@
       <c r="P430" s="3"/>
       <c r="Q430" s="3"/>
     </row>
-    <row r="431" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -8497,7 +8679,7 @@
       <c r="P431" s="3"/>
       <c r="Q431" s="3"/>
     </row>
-    <row r="432" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -8516,7 +8698,7 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
     </row>
-    <row r="433" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -8535,7 +8717,7 @@
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
     </row>
-    <row r="434" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -8554,7 +8736,7 @@
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
     </row>
-    <row r="435" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -8573,7 +8755,7 @@
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
     </row>
-    <row r="436" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -8592,7 +8774,7 @@
       <c r="P436" s="3"/>
       <c r="Q436" s="3"/>
     </row>
-    <row r="437" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -8611,7 +8793,7 @@
       <c r="P437" s="3"/>
       <c r="Q437" s="3"/>
     </row>
-    <row r="438" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -8630,7 +8812,7 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
     </row>
-    <row r="439" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -8649,7 +8831,7 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
     </row>
-    <row r="440" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -8668,7 +8850,7 @@
       <c r="P440" s="3"/>
       <c r="Q440" s="3"/>
     </row>
-    <row r="441" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -8687,7 +8869,7 @@
       <c r="P441" s="3"/>
       <c r="Q441" s="3"/>
     </row>
-    <row r="442" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -8706,7 +8888,7 @@
       <c r="P442" s="3"/>
       <c r="Q442" s="3"/>
     </row>
-    <row r="443" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -8725,7 +8907,7 @@
       <c r="P443" s="3"/>
       <c r="Q443" s="3"/>
     </row>
-    <row r="444" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -8744,7 +8926,7 @@
       <c r="P444" s="3"/>
       <c r="Q444" s="3"/>
     </row>
-    <row r="445" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -8763,7 +8945,7 @@
       <c r="P445" s="3"/>
       <c r="Q445" s="3"/>
     </row>
-    <row r="446" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -8782,7 +8964,7 @@
       <c r="P446" s="3"/>
       <c r="Q446" s="3"/>
     </row>
-    <row r="447" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -8801,7 +8983,7 @@
       <c r="P447" s="3"/>
       <c r="Q447" s="3"/>
     </row>
-    <row r="448" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -8820,7 +9002,7 @@
       <c r="P448" s="3"/>
       <c r="Q448" s="3"/>
     </row>
-    <row r="449" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -8839,7 +9021,7 @@
       <c r="P449" s="3"/>
       <c r="Q449" s="3"/>
     </row>
-    <row r="450" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -8858,7 +9040,7 @@
       <c r="P450" s="3"/>
       <c r="Q450" s="3"/>
     </row>
-    <row r="451" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -8877,7 +9059,7 @@
       <c r="P451" s="3"/>
       <c r="Q451" s="3"/>
     </row>
-    <row r="452" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -8896,7 +9078,7 @@
       <c r="P452" s="3"/>
       <c r="Q452" s="3"/>
     </row>
-    <row r="453" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -8915,7 +9097,7 @@
       <c r="P453" s="3"/>
       <c r="Q453" s="3"/>
     </row>
-    <row r="454" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -8934,7 +9116,7 @@
       <c r="P454" s="3"/>
       <c r="Q454" s="3"/>
     </row>
-    <row r="455" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -8953,7 +9135,7 @@
       <c r="P455" s="3"/>
       <c r="Q455" s="3"/>
     </row>
-    <row r="456" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -8972,7 +9154,7 @@
       <c r="P456" s="3"/>
       <c r="Q456" s="3"/>
     </row>
-    <row r="457" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -8991,7 +9173,7 @@
       <c r="P457" s="3"/>
       <c r="Q457" s="3"/>
     </row>
-    <row r="458" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -9010,7 +9192,7 @@
       <c r="P458" s="3"/>
       <c r="Q458" s="3"/>
     </row>
-    <row r="459" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -9029,7 +9211,7 @@
       <c r="P459" s="3"/>
       <c r="Q459" s="3"/>
     </row>
-    <row r="460" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -9048,7 +9230,7 @@
       <c r="P460" s="3"/>
       <c r="Q460" s="3"/>
     </row>
-    <row r="461" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -9067,7 +9249,7 @@
       <c r="P461" s="3"/>
       <c r="Q461" s="3"/>
     </row>
-    <row r="462" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -9086,7 +9268,7 @@
       <c r="P462" s="3"/>
       <c r="Q462" s="3"/>
     </row>
-    <row r="463" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -9105,7 +9287,7 @@
       <c r="P463" s="3"/>
       <c r="Q463" s="3"/>
     </row>
-    <row r="464" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -9124,7 +9306,7 @@
       <c r="P464" s="3"/>
       <c r="Q464" s="3"/>
     </row>
-    <row r="465" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -9143,7 +9325,7 @@
       <c r="P465" s="3"/>
       <c r="Q465" s="3"/>
     </row>
-    <row r="466" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -9162,7 +9344,7 @@
       <c r="P466" s="3"/>
       <c r="Q466" s="3"/>
     </row>
-    <row r="467" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -9181,7 +9363,7 @@
       <c r="P467" s="3"/>
       <c r="Q467" s="3"/>
     </row>
-    <row r="468" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -9200,7 +9382,7 @@
       <c r="P468" s="3"/>
       <c r="Q468" s="3"/>
     </row>
-    <row r="469" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -9219,7 +9401,7 @@
       <c r="P469" s="3"/>
       <c r="Q469" s="3"/>
     </row>
-    <row r="470" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -9238,7 +9420,7 @@
       <c r="P470" s="3"/>
       <c r="Q470" s="3"/>
     </row>
-    <row r="471" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -9257,7 +9439,7 @@
       <c r="P471" s="3"/>
       <c r="Q471" s="3"/>
     </row>
-    <row r="472" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -9276,7 +9458,7 @@
       <c r="P472" s="3"/>
       <c r="Q472" s="3"/>
     </row>
-    <row r="473" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -9295,7 +9477,7 @@
       <c r="P473" s="3"/>
       <c r="Q473" s="3"/>
     </row>
-    <row r="474" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -9314,7 +9496,7 @@
       <c r="P474" s="3"/>
       <c r="Q474" s="3"/>
     </row>
-    <row r="475" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -9333,7 +9515,7 @@
       <c r="P475" s="3"/>
       <c r="Q475" s="3"/>
     </row>
-    <row r="476" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -9352,7 +9534,7 @@
       <c r="P476" s="3"/>
       <c r="Q476" s="3"/>
     </row>
-    <row r="477" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -9371,7 +9553,7 @@
       <c r="P477" s="3"/>
       <c r="Q477" s="3"/>
     </row>
-    <row r="478" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -9390,7 +9572,7 @@
       <c r="P478" s="3"/>
       <c r="Q478" s="3"/>
     </row>
-    <row r="479" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -9409,7 +9591,7 @@
       <c r="P479" s="3"/>
       <c r="Q479" s="3"/>
     </row>
-    <row r="480" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -9428,7 +9610,7 @@
       <c r="P480" s="3"/>
       <c r="Q480" s="3"/>
     </row>
-    <row r="481" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -9447,7 +9629,7 @@
       <c r="P481" s="3"/>
       <c r="Q481" s="3"/>
     </row>
-    <row r="482" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -9466,7 +9648,7 @@
       <c r="P482" s="3"/>
       <c r="Q482" s="3"/>
     </row>
-    <row r="483" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -9485,7 +9667,7 @@
       <c r="P483" s="3"/>
       <c r="Q483" s="3"/>
     </row>
-    <row r="484" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -9504,7 +9686,7 @@
       <c r="P484" s="3"/>
       <c r="Q484" s="3"/>
     </row>
-    <row r="485" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -9523,7 +9705,7 @@
       <c r="P485" s="3"/>
       <c r="Q485" s="3"/>
     </row>
-    <row r="486" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -9542,7 +9724,7 @@
       <c r="P486" s="3"/>
       <c r="Q486" s="3"/>
     </row>
-    <row r="487" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -9561,7 +9743,7 @@
       <c r="P487" s="3"/>
       <c r="Q487" s="3"/>
     </row>
-    <row r="488" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -9580,7 +9762,7 @@
       <c r="P488" s="3"/>
       <c r="Q488" s="3"/>
     </row>
-    <row r="489" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -9599,7 +9781,7 @@
       <c r="P489" s="3"/>
       <c r="Q489" s="3"/>
     </row>
-    <row r="490" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -9618,7 +9800,7 @@
       <c r="P490" s="3"/>
       <c r="Q490" s="3"/>
     </row>
-    <row r="491" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -9637,7 +9819,7 @@
       <c r="P491" s="3"/>
       <c r="Q491" s="3"/>
     </row>
-    <row r="492" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -9656,7 +9838,7 @@
       <c r="P492" s="3"/>
       <c r="Q492" s="3"/>
     </row>
-    <row r="493" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -9675,7 +9857,7 @@
       <c r="P493" s="3"/>
       <c r="Q493" s="3"/>
     </row>
-    <row r="494" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -9694,7 +9876,7 @@
       <c r="P494" s="3"/>
       <c r="Q494" s="3"/>
     </row>
-    <row r="495" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -9713,7 +9895,7 @@
       <c r="P495" s="3"/>
       <c r="Q495" s="3"/>
     </row>
-    <row r="496" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -9732,7 +9914,7 @@
       <c r="P496" s="3"/>
       <c r="Q496" s="3"/>
     </row>
-    <row r="497" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -9751,7 +9933,7 @@
       <c r="P497" s="3"/>
       <c r="Q497" s="3"/>
     </row>
-    <row r="498" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -9770,7 +9952,7 @@
       <c r="P498" s="3"/>
       <c r="Q498" s="3"/>
     </row>
-    <row r="499" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -9789,7 +9971,7 @@
       <c r="P499" s="3"/>
       <c r="Q499" s="3"/>
     </row>
-    <row r="500" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -9808,7 +9990,7 @@
       <c r="P500" s="3"/>
       <c r="Q500" s="3"/>
     </row>
-    <row r="501" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -9827,7 +10009,7 @@
       <c r="P501" s="3"/>
       <c r="Q501" s="3"/>
     </row>
-    <row r="502" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -9846,7 +10028,7 @@
       <c r="P502" s="3"/>
       <c r="Q502" s="3"/>
     </row>
-    <row r="503" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -9865,7 +10047,7 @@
       <c r="P503" s="3"/>
       <c r="Q503" s="3"/>
     </row>
-    <row r="504" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -9884,7 +10066,7 @@
       <c r="P504" s="3"/>
       <c r="Q504" s="3"/>
     </row>
-    <row r="505" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -9903,7 +10085,7 @@
       <c r="P505" s="3"/>
       <c r="Q505" s="3"/>
     </row>
-    <row r="506" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -9922,7 +10104,7 @@
       <c r="P506" s="3"/>
       <c r="Q506" s="3"/>
     </row>
-    <row r="507" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -9941,7 +10123,7 @@
       <c r="P507" s="3"/>
       <c r="Q507" s="3"/>
     </row>
-    <row r="508" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -9960,7 +10142,7 @@
       <c r="P508" s="3"/>
       <c r="Q508" s="3"/>
     </row>
-    <row r="509" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -9979,7 +10161,7 @@
       <c r="P509" s="3"/>
       <c r="Q509" s="3"/>
     </row>
-    <row r="510" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -9998,7 +10180,7 @@
       <c r="P510" s="3"/>
       <c r="Q510" s="3"/>
     </row>
-    <row r="511" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -10017,7 +10199,7 @@
       <c r="P511" s="3"/>
       <c r="Q511" s="3"/>
     </row>
-    <row r="512" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -10036,7 +10218,7 @@
       <c r="P512" s="3"/>
       <c r="Q512" s="3"/>
     </row>
-    <row r="513" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -10055,7 +10237,7 @@
       <c r="P513" s="3"/>
       <c r="Q513" s="3"/>
     </row>
-    <row r="514" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -10074,7 +10256,7 @@
       <c r="P514" s="3"/>
       <c r="Q514" s="3"/>
     </row>
-    <row r="515" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -10093,7 +10275,7 @@
       <c r="P515" s="3"/>
       <c r="Q515" s="3"/>
     </row>
-    <row r="516" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -10112,7 +10294,7 @@
       <c r="P516" s="3"/>
       <c r="Q516" s="3"/>
     </row>
-    <row r="517" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -10131,7 +10313,7 @@
       <c r="P517" s="3"/>
       <c r="Q517" s="3"/>
     </row>
-    <row r="518" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -10150,7 +10332,7 @@
       <c r="P518" s="3"/>
       <c r="Q518" s="3"/>
     </row>
-    <row r="519" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -10169,7 +10351,7 @@
       <c r="P519" s="3"/>
       <c r="Q519" s="3"/>
     </row>
-    <row r="520" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -10188,7 +10370,7 @@
       <c r="P520" s="3"/>
       <c r="Q520" s="3"/>
     </row>
-    <row r="521" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -10207,7 +10389,7 @@
       <c r="P521" s="3"/>
       <c r="Q521" s="3"/>
     </row>
-    <row r="522" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -10226,7 +10408,7 @@
       <c r="P522" s="3"/>
       <c r="Q522" s="3"/>
     </row>
-    <row r="523" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -10245,7 +10427,7 @@
       <c r="P523" s="3"/>
       <c r="Q523" s="3"/>
     </row>
-    <row r="524" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -10264,7 +10446,7 @@
       <c r="P524" s="3"/>
       <c r="Q524" s="3"/>
     </row>
-    <row r="525" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -10283,7 +10465,7 @@
       <c r="P525" s="3"/>
       <c r="Q525" s="3"/>
     </row>
-    <row r="526" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -10302,7 +10484,7 @@
       <c r="P526" s="3"/>
       <c r="Q526" s="3"/>
     </row>
-    <row r="527" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -10321,7 +10503,7 @@
       <c r="P527" s="3"/>
       <c r="Q527" s="3"/>
     </row>
-    <row r="528" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -10340,7 +10522,7 @@
       <c r="P528" s="3"/>
       <c r="Q528" s="3"/>
     </row>
-    <row r="529" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -10359,7 +10541,7 @@
       <c r="P529" s="3"/>
       <c r="Q529" s="3"/>
     </row>
-    <row r="530" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -10378,7 +10560,7 @@
       <c r="P530" s="3"/>
       <c r="Q530" s="3"/>
     </row>
-    <row r="531" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -10397,7 +10579,7 @@
       <c r="P531" s="3"/>
       <c r="Q531" s="3"/>
     </row>
-    <row r="532" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -10416,7 +10598,7 @@
       <c r="P532" s="3"/>
       <c r="Q532" s="3"/>
     </row>
-    <row r="533" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -10435,7 +10617,7 @@
       <c r="P533" s="3"/>
       <c r="Q533" s="3"/>
     </row>
-    <row r="534" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -10454,7 +10636,7 @@
       <c r="P534" s="3"/>
       <c r="Q534" s="3"/>
     </row>
-    <row r="535" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -10473,7 +10655,7 @@
       <c r="P535" s="3"/>
       <c r="Q535" s="3"/>
     </row>
-    <row r="536" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -10492,7 +10674,7 @@
       <c r="P536" s="3"/>
       <c r="Q536" s="3"/>
     </row>
-    <row r="537" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -10511,7 +10693,7 @@
       <c r="P537" s="3"/>
       <c r="Q537" s="3"/>
     </row>
-    <row r="538" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -10530,7 +10712,7 @@
       <c r="P538" s="3"/>
       <c r="Q538" s="3"/>
     </row>
-    <row r="539" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -10549,7 +10731,7 @@
       <c r="P539" s="3"/>
       <c r="Q539" s="3"/>
     </row>
-    <row r="540" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -10568,7 +10750,7 @@
       <c r="P540" s="3"/>
       <c r="Q540" s="3"/>
     </row>
-    <row r="541" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -10587,7 +10769,7 @@
       <c r="P541" s="3"/>
       <c r="Q541" s="3"/>
     </row>
-    <row r="542" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -10606,7 +10788,7 @@
       <c r="P542" s="3"/>
       <c r="Q542" s="3"/>
     </row>
-    <row r="543" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -10625,7 +10807,7 @@
       <c r="P543" s="3"/>
       <c r="Q543" s="3"/>
     </row>
-    <row r="544" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -10644,7 +10826,7 @@
       <c r="P544" s="3"/>
       <c r="Q544" s="3"/>
     </row>
-    <row r="545" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -10663,7 +10845,7 @@
       <c r="P545" s="3"/>
       <c r="Q545" s="3"/>
     </row>
-    <row r="546" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -10682,7 +10864,7 @@
       <c r="P546" s="3"/>
       <c r="Q546" s="3"/>
     </row>
-    <row r="547" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -10701,7 +10883,7 @@
       <c r="P547" s="3"/>
       <c r="Q547" s="3"/>
     </row>
-    <row r="548" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -10720,7 +10902,7 @@
       <c r="P548" s="3"/>
       <c r="Q548" s="3"/>
     </row>
-    <row r="549" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -10739,7 +10921,7 @@
       <c r="P549" s="3"/>
       <c r="Q549" s="3"/>
     </row>
-    <row r="550" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -10758,7 +10940,7 @@
       <c r="P550" s="3"/>
       <c r="Q550" s="3"/>
     </row>
-    <row r="551" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -10777,7 +10959,7 @@
       <c r="P551" s="3"/>
       <c r="Q551" s="3"/>
     </row>
-    <row r="552" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -10796,7 +10978,7 @@
       <c r="P552" s="3"/>
       <c r="Q552" s="3"/>
     </row>
-    <row r="553" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -10815,7 +10997,7 @@
       <c r="P553" s="3"/>
       <c r="Q553" s="3"/>
     </row>
-    <row r="554" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -10834,7 +11016,7 @@
       <c r="P554" s="3"/>
       <c r="Q554" s="3"/>
     </row>
-    <row r="555" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -10853,7 +11035,7 @@
       <c r="P555" s="3"/>
       <c r="Q555" s="3"/>
     </row>
-    <row r="556" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -10872,7 +11054,7 @@
       <c r="P556" s="3"/>
       <c r="Q556" s="3"/>
     </row>
-    <row r="557" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -10891,7 +11073,7 @@
       <c r="P557" s="3"/>
       <c r="Q557" s="3"/>
     </row>
-    <row r="558" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -10910,7 +11092,7 @@
       <c r="P558" s="3"/>
       <c r="Q558" s="3"/>
     </row>
-    <row r="559" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -10929,7 +11111,7 @@
       <c r="P559" s="3"/>
       <c r="Q559" s="3"/>
     </row>
-    <row r="560" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -10948,7 +11130,7 @@
       <c r="P560" s="3"/>
       <c r="Q560" s="3"/>
     </row>
-    <row r="561" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -10967,7 +11149,7 @@
       <c r="P561" s="3"/>
       <c r="Q561" s="3"/>
     </row>
-    <row r="562" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -10986,7 +11168,7 @@
       <c r="P562" s="3"/>
       <c r="Q562" s="3"/>
     </row>
-    <row r="563" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -11005,7 +11187,7 @@
       <c r="P563" s="3"/>
       <c r="Q563" s="3"/>
     </row>
-    <row r="564" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -11024,7 +11206,7 @@
       <c r="P564" s="3"/>
       <c r="Q564" s="3"/>
     </row>
-    <row r="565" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -11043,7 +11225,7 @@
       <c r="P565" s="3"/>
       <c r="Q565" s="3"/>
     </row>
-    <row r="566" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -11062,7 +11244,7 @@
       <c r="P566" s="3"/>
       <c r="Q566" s="3"/>
     </row>
-    <row r="567" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -11081,7 +11263,7 @@
       <c r="P567" s="3"/>
       <c r="Q567" s="3"/>
     </row>
-    <row r="568" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -11100,7 +11282,7 @@
       <c r="P568" s="3"/>
       <c r="Q568" s="3"/>
     </row>
-    <row r="569" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -11119,7 +11301,7 @@
       <c r="P569" s="3"/>
       <c r="Q569" s="3"/>
     </row>
-    <row r="570" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -11138,7 +11320,7 @@
       <c r="P570" s="3"/>
       <c r="Q570" s="3"/>
     </row>
-    <row r="571" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -11157,7 +11339,7 @@
       <c r="P571" s="3"/>
       <c r="Q571" s="3"/>
     </row>
-    <row r="572" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -11176,7 +11358,7 @@
       <c r="P572" s="3"/>
       <c r="Q572" s="3"/>
     </row>
-    <row r="573" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -11195,7 +11377,7 @@
       <c r="P573" s="3"/>
       <c r="Q573" s="3"/>
     </row>
-    <row r="574" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -11214,7 +11396,7 @@
       <c r="P574" s="3"/>
       <c r="Q574" s="3"/>
     </row>
-    <row r="575" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -11233,7 +11415,7 @@
       <c r="P575" s="3"/>
       <c r="Q575" s="3"/>
     </row>
-    <row r="576" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -11252,7 +11434,7 @@
       <c r="P576" s="3"/>
       <c r="Q576" s="3"/>
     </row>
-    <row r="577" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -11271,7 +11453,7 @@
       <c r="P577" s="3"/>
       <c r="Q577" s="3"/>
     </row>
-    <row r="578" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -11290,7 +11472,7 @@
       <c r="P578" s="3"/>
       <c r="Q578" s="3"/>
     </row>
-    <row r="579" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -11309,7 +11491,7 @@
       <c r="P579" s="3"/>
       <c r="Q579" s="3"/>
     </row>
-    <row r="580" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -11328,7 +11510,7 @@
       <c r="P580" s="3"/>
       <c r="Q580" s="3"/>
     </row>
-    <row r="581" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -11347,7 +11529,7 @@
       <c r="P581" s="3"/>
       <c r="Q581" s="3"/>
     </row>
-    <row r="582" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -11366,7 +11548,7 @@
       <c r="P582" s="3"/>
       <c r="Q582" s="3"/>
     </row>
-    <row r="583" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -11385,7 +11567,7 @@
       <c r="P583" s="3"/>
       <c r="Q583" s="3"/>
     </row>
-    <row r="584" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -11404,7 +11586,7 @@
       <c r="P584" s="3"/>
       <c r="Q584" s="3"/>
     </row>
-    <row r="585" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -11423,7 +11605,7 @@
       <c r="P585" s="3"/>
       <c r="Q585" s="3"/>
     </row>
-    <row r="586" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -11442,7 +11624,7 @@
       <c r="P586" s="3"/>
       <c r="Q586" s="3"/>
     </row>
-    <row r="587" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -11461,7 +11643,7 @@
       <c r="P587" s="3"/>
       <c r="Q587" s="3"/>
     </row>
-    <row r="588" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -11480,7 +11662,7 @@
       <c r="P588" s="3"/>
       <c r="Q588" s="3"/>
     </row>
-    <row r="589" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -11499,7 +11681,7 @@
       <c r="P589" s="3"/>
       <c r="Q589" s="3"/>
     </row>
-    <row r="590" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -11518,7 +11700,7 @@
       <c r="P590" s="3"/>
       <c r="Q590" s="3"/>
     </row>
-    <row r="591" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -11537,7 +11719,7 @@
       <c r="P591" s="3"/>
       <c r="Q591" s="3"/>
     </row>
-    <row r="592" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -11556,7 +11738,7 @@
       <c r="P592" s="3"/>
       <c r="Q592" s="3"/>
     </row>
-    <row r="593" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -11575,7 +11757,7 @@
       <c r="P593" s="3"/>
       <c r="Q593" s="3"/>
     </row>
-    <row r="594" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -11594,7 +11776,7 @@
       <c r="P594" s="3"/>
       <c r="Q594" s="3"/>
     </row>
-    <row r="595" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -11613,7 +11795,7 @@
       <c r="P595" s="3"/>
       <c r="Q595" s="3"/>
     </row>
-    <row r="596" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -11632,7 +11814,7 @@
       <c r="P596" s="3"/>
       <c r="Q596" s="3"/>
     </row>
-    <row r="597" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -11651,7 +11833,7 @@
       <c r="P597" s="3"/>
       <c r="Q597" s="3"/>
     </row>
-    <row r="598" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -11670,7 +11852,7 @@
       <c r="P598" s="3"/>
       <c r="Q598" s="3"/>
     </row>
-    <row r="599" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -11689,7 +11871,7 @@
       <c r="P599" s="3"/>
       <c r="Q599" s="3"/>
     </row>
-    <row r="600" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -11708,7 +11890,7 @@
       <c r="P600" s="3"/>
       <c r="Q600" s="3"/>
     </row>
-    <row r="601" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -11727,7 +11909,7 @@
       <c r="P601" s="3"/>
       <c r="Q601" s="3"/>
     </row>
-    <row r="602" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -11746,7 +11928,7 @@
       <c r="P602" s="3"/>
       <c r="Q602" s="3"/>
     </row>
-    <row r="603" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -11765,7 +11947,7 @@
       <c r="P603" s="3"/>
       <c r="Q603" s="3"/>
     </row>
-    <row r="604" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -11784,7 +11966,7 @@
       <c r="P604" s="3"/>
       <c r="Q604" s="3"/>
     </row>
-    <row r="605" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -11803,7 +11985,7 @@
       <c r="P605" s="3"/>
       <c r="Q605" s="3"/>
     </row>
-    <row r="606" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -11822,7 +12004,7 @@
       <c r="P606" s="3"/>
       <c r="Q606" s="3"/>
     </row>
-    <row r="607" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -11841,7 +12023,7 @@
       <c r="P607" s="3"/>
       <c r="Q607" s="3"/>
     </row>
-    <row r="608" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -11860,7 +12042,7 @@
       <c r="P608" s="3"/>
       <c r="Q608" s="3"/>
     </row>
-    <row r="609" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -11879,7 +12061,7 @@
       <c r="P609" s="3"/>
       <c r="Q609" s="3"/>
     </row>
-    <row r="610" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -11898,7 +12080,7 @@
       <c r="P610" s="3"/>
       <c r="Q610" s="3"/>
     </row>
-    <row r="611" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -11917,7 +12099,7 @@
       <c r="P611" s="3"/>
       <c r="Q611" s="3"/>
     </row>
-    <row r="612" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -11936,7 +12118,7 @@
       <c r="P612" s="3"/>
       <c r="Q612" s="3"/>
     </row>
-    <row r="613" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -11955,7 +12137,7 @@
       <c r="P613" s="3"/>
       <c r="Q613" s="3"/>
     </row>
-    <row r="614" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -11974,7 +12156,7 @@
       <c r="P614" s="3"/>
       <c r="Q614" s="3"/>
     </row>
-    <row r="615" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -11993,7 +12175,7 @@
       <c r="P615" s="3"/>
       <c r="Q615" s="3"/>
     </row>
-    <row r="616" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -12012,7 +12194,7 @@
       <c r="P616" s="3"/>
       <c r="Q616" s="3"/>
     </row>
-    <row r="617" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -12031,7 +12213,7 @@
       <c r="P617" s="3"/>
       <c r="Q617" s="3"/>
     </row>
-    <row r="618" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -12050,7 +12232,7 @@
       <c r="P618" s="3"/>
       <c r="Q618" s="3"/>
     </row>
-    <row r="619" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -12069,7 +12251,7 @@
       <c r="P619" s="3"/>
       <c r="Q619" s="3"/>
     </row>
-    <row r="620" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -12088,7 +12270,7 @@
       <c r="P620" s="3"/>
       <c r="Q620" s="3"/>
     </row>
-    <row r="621" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -12107,7 +12289,7 @@
       <c r="P621" s="3"/>
       <c r="Q621" s="3"/>
     </row>
-    <row r="622" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -12126,7 +12308,7 @@
       <c r="P622" s="3"/>
       <c r="Q622" s="3"/>
     </row>
-    <row r="623" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -12145,7 +12327,7 @@
       <c r="P623" s="3"/>
       <c r="Q623" s="3"/>
     </row>
-    <row r="624" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -12164,7 +12346,7 @@
       <c r="P624" s="3"/>
       <c r="Q624" s="3"/>
     </row>
-    <row r="625" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -12183,7 +12365,7 @@
       <c r="P625" s="3"/>
       <c r="Q625" s="3"/>
     </row>
-    <row r="626" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -12202,7 +12384,7 @@
       <c r="P626" s="3"/>
       <c r="Q626" s="3"/>
     </row>
-    <row r="627" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -12221,7 +12403,7 @@
       <c r="P627" s="3"/>
       <c r="Q627" s="3"/>
     </row>
-    <row r="628" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -12240,7 +12422,7 @@
       <c r="P628" s="3"/>
       <c r="Q628" s="3"/>
     </row>
-    <row r="629" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -12259,7 +12441,7 @@
       <c r="P629" s="3"/>
       <c r="Q629" s="3"/>
     </row>
-    <row r="630" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -12278,7 +12460,7 @@
       <c r="P630" s="3"/>
       <c r="Q630" s="3"/>
     </row>
-    <row r="631" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -12297,7 +12479,7 @@
       <c r="P631" s="3"/>
       <c r="Q631" s="3"/>
     </row>
-    <row r="632" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -12316,7 +12498,7 @@
       <c r="P632" s="3"/>
       <c r="Q632" s="3"/>
     </row>
-    <row r="633" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -12335,7 +12517,7 @@
       <c r="P633" s="3"/>
       <c r="Q633" s="3"/>
     </row>
-    <row r="634" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -12354,7 +12536,7 @@
       <c r="P634" s="3"/>
       <c r="Q634" s="3"/>
     </row>
-    <row r="635" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -12373,7 +12555,7 @@
       <c r="P635" s="3"/>
       <c r="Q635" s="3"/>
     </row>
-    <row r="636" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -12392,7 +12574,7 @@
       <c r="P636" s="3"/>
       <c r="Q636" s="3"/>
     </row>
-    <row r="637" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -12411,7 +12593,7 @@
       <c r="P637" s="3"/>
       <c r="Q637" s="3"/>
     </row>
-    <row r="638" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -12430,7 +12612,7 @@
       <c r="P638" s="3"/>
       <c r="Q638" s="3"/>
     </row>
-    <row r="639" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -12449,7 +12631,7 @@
       <c r="P639" s="3"/>
       <c r="Q639" s="3"/>
     </row>
-    <row r="640" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -12468,7 +12650,7 @@
       <c r="P640" s="3"/>
       <c r="Q640" s="3"/>
     </row>
-    <row r="641" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -12487,7 +12669,7 @@
       <c r="P641" s="3"/>
       <c r="Q641" s="3"/>
     </row>
-    <row r="642" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -12506,7 +12688,7 @@
       <c r="P642" s="3"/>
       <c r="Q642" s="3"/>
     </row>
-    <row r="643" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -12525,7 +12707,7 @@
       <c r="P643" s="3"/>
       <c r="Q643" s="3"/>
     </row>
-    <row r="644" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -12544,7 +12726,7 @@
       <c r="P644" s="3"/>
       <c r="Q644" s="3"/>
     </row>
-    <row r="645" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -12563,7 +12745,7 @@
       <c r="P645" s="3"/>
       <c r="Q645" s="3"/>
     </row>
-    <row r="646" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -12582,7 +12764,7 @@
       <c r="P646" s="3"/>
       <c r="Q646" s="3"/>
     </row>
-    <row r="647" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -12601,7 +12783,7 @@
       <c r="P647" s="3"/>
       <c r="Q647" s="3"/>
     </row>
-    <row r="648" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -12620,7 +12802,7 @@
       <c r="P648" s="3"/>
       <c r="Q648" s="3"/>
     </row>
-    <row r="649" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -12639,7 +12821,7 @@
       <c r="P649" s="3"/>
       <c r="Q649" s="3"/>
     </row>
-    <row r="650" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -12658,7 +12840,7 @@
       <c r="P650" s="3"/>
       <c r="Q650" s="3"/>
     </row>
-    <row r="651" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -12677,7 +12859,7 @@
       <c r="P651" s="3"/>
       <c r="Q651" s="3"/>
     </row>
-    <row r="652" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -12696,7 +12878,7 @@
       <c r="P652" s="3"/>
       <c r="Q652" s="3"/>
     </row>
-    <row r="653" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -12715,7 +12897,7 @@
       <c r="P653" s="3"/>
       <c r="Q653" s="3"/>
     </row>
-    <row r="654" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -12734,7 +12916,7 @@
       <c r="P654" s="3"/>
       <c r="Q654" s="3"/>
     </row>
-    <row r="655" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -12753,7 +12935,7 @@
       <c r="P655" s="3"/>
       <c r="Q655" s="3"/>
     </row>
-    <row r="656" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -12772,7 +12954,7 @@
       <c r="P656" s="3"/>
       <c r="Q656" s="3"/>
     </row>
-    <row r="657" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -12791,7 +12973,7 @@
       <c r="P657" s="3"/>
       <c r="Q657" s="3"/>
     </row>
-    <row r="658" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -12810,7 +12992,7 @@
       <c r="P658" s="3"/>
       <c r="Q658" s="3"/>
     </row>
-    <row r="659" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -12829,7 +13011,7 @@
       <c r="P659" s="3"/>
       <c r="Q659" s="3"/>
     </row>
-    <row r="660" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -12848,7 +13030,7 @@
       <c r="P660" s="3"/>
       <c r="Q660" s="3"/>
     </row>
-    <row r="661" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -12867,7 +13049,7 @@
       <c r="P661" s="3"/>
       <c r="Q661" s="3"/>
     </row>
-    <row r="662" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -12886,7 +13068,7 @@
       <c r="P662" s="3"/>
       <c r="Q662" s="3"/>
     </row>
-    <row r="663" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -12905,7 +13087,7 @@
       <c r="P663" s="3"/>
       <c r="Q663" s="3"/>
     </row>
-    <row r="664" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -12924,7 +13106,7 @@
       <c r="P664" s="3"/>
       <c r="Q664" s="3"/>
     </row>
-    <row r="665" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -12943,7 +13125,7 @@
       <c r="P665" s="3"/>
       <c r="Q665" s="3"/>
     </row>
-    <row r="666" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -12962,7 +13144,7 @@
       <c r="P666" s="3"/>
       <c r="Q666" s="3"/>
     </row>
-    <row r="667" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -12981,7 +13163,7 @@
       <c r="P667" s="3"/>
       <c r="Q667" s="3"/>
     </row>
-    <row r="668" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -13000,7 +13182,7 @@
       <c r="P668" s="3"/>
       <c r="Q668" s="3"/>
     </row>
-    <row r="669" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -13019,7 +13201,7 @@
       <c r="P669" s="3"/>
       <c r="Q669" s="3"/>
     </row>
-    <row r="670" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -13038,7 +13220,7 @@
       <c r="P670" s="3"/>
       <c r="Q670" s="3"/>
     </row>
-    <row r="671" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -13057,7 +13239,7 @@
       <c r="P671" s="3"/>
       <c r="Q671" s="3"/>
     </row>
-    <row r="672" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -13076,7 +13258,7 @@
       <c r="P672" s="3"/>
       <c r="Q672" s="3"/>
     </row>
-    <row r="673" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -13095,7 +13277,7 @@
       <c r="P673" s="3"/>
       <c r="Q673" s="3"/>
     </row>
-    <row r="674" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -13114,7 +13296,7 @@
       <c r="P674" s="3"/>
       <c r="Q674" s="3"/>
     </row>
-    <row r="675" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -13133,7 +13315,7 @@
       <c r="P675" s="3"/>
       <c r="Q675" s="3"/>
     </row>
-    <row r="676" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -13152,7 +13334,7 @@
       <c r="P676" s="3"/>
       <c r="Q676" s="3"/>
     </row>
-    <row r="677" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -13171,7 +13353,7 @@
       <c r="P677" s="3"/>
       <c r="Q677" s="3"/>
     </row>
-    <row r="678" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -13190,7 +13372,7 @@
       <c r="P678" s="3"/>
       <c r="Q678" s="3"/>
     </row>
-    <row r="679" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -13209,7 +13391,7 @@
       <c r="P679" s="3"/>
       <c r="Q679" s="3"/>
     </row>
-    <row r="680" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -13228,7 +13410,7 @@
       <c r="P680" s="3"/>
       <c r="Q680" s="3"/>
     </row>
-    <row r="681" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -13247,7 +13429,7 @@
       <c r="P681" s="3"/>
       <c r="Q681" s="3"/>
     </row>
-    <row r="682" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -13266,7 +13448,7 @@
       <c r="P682" s="3"/>
       <c r="Q682" s="3"/>
     </row>
-    <row r="683" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -13285,7 +13467,7 @@
       <c r="P683" s="3"/>
       <c r="Q683" s="3"/>
     </row>
-    <row r="684" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -13304,7 +13486,7 @@
       <c r="P684" s="3"/>
       <c r="Q684" s="3"/>
     </row>
-    <row r="685" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -13323,7 +13505,7 @@
       <c r="P685" s="3"/>
       <c r="Q685" s="3"/>
     </row>
-    <row r="686" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -13342,7 +13524,7 @@
       <c r="P686" s="3"/>
       <c r="Q686" s="3"/>
     </row>
-    <row r="687" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -13361,7 +13543,7 @@
       <c r="P687" s="3"/>
       <c r="Q687" s="3"/>
     </row>
-    <row r="688" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -13380,7 +13562,7 @@
       <c r="P688" s="3"/>
       <c r="Q688" s="3"/>
     </row>
-    <row r="689" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -13399,7 +13581,7 @@
       <c r="P689" s="3"/>
       <c r="Q689" s="3"/>
     </row>
-    <row r="690" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -13418,7 +13600,7 @@
       <c r="P690" s="3"/>
       <c r="Q690" s="3"/>
     </row>
-    <row r="691" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -13437,7 +13619,7 @@
       <c r="P691" s="3"/>
       <c r="Q691" s="3"/>
     </row>
-    <row r="692" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -13456,7 +13638,7 @@
       <c r="P692" s="3"/>
       <c r="Q692" s="3"/>
     </row>
-    <row r="693" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -13475,7 +13657,7 @@
       <c r="P693" s="3"/>
       <c r="Q693" s="3"/>
     </row>
-    <row r="694" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -13494,7 +13676,7 @@
       <c r="P694" s="3"/>
       <c r="Q694" s="3"/>
     </row>
-    <row r="695" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -13513,7 +13695,7 @@
       <c r="P695" s="3"/>
       <c r="Q695" s="3"/>
     </row>
-    <row r="696" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -13532,7 +13714,7 @@
       <c r="P696" s="3"/>
       <c r="Q696" s="3"/>
     </row>
-    <row r="697" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -13551,7 +13733,7 @@
       <c r="P697" s="3"/>
       <c r="Q697" s="3"/>
     </row>
-    <row r="698" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -13570,7 +13752,7 @@
       <c r="P698" s="3"/>
       <c r="Q698" s="3"/>
     </row>
-    <row r="699" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -13589,7 +13771,7 @@
       <c r="P699" s="3"/>
       <c r="Q699" s="3"/>
     </row>
-    <row r="700" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -13608,7 +13790,7 @@
       <c r="P700" s="3"/>
       <c r="Q700" s="3"/>
     </row>
-    <row r="701" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -13627,7 +13809,7 @@
       <c r="P701" s="3"/>
       <c r="Q701" s="3"/>
     </row>
-    <row r="702" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -13646,7 +13828,7 @@
       <c r="P702" s="3"/>
       <c r="Q702" s="3"/>
     </row>
-    <row r="703" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -13665,7 +13847,7 @@
       <c r="P703" s="3"/>
       <c r="Q703" s="3"/>
     </row>
-    <row r="704" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -13684,7 +13866,7 @@
       <c r="P704" s="3"/>
       <c r="Q704" s="3"/>
     </row>
-    <row r="705" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -13703,7 +13885,7 @@
       <c r="P705" s="3"/>
       <c r="Q705" s="3"/>
     </row>
-    <row r="706" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -13722,7 +13904,7 @@
       <c r="P706" s="3"/>
       <c r="Q706" s="3"/>
     </row>
-    <row r="707" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -13741,7 +13923,7 @@
       <c r="P707" s="3"/>
       <c r="Q707" s="3"/>
     </row>
-    <row r="708" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -13760,7 +13942,7 @@
       <c r="P708" s="3"/>
       <c r="Q708" s="3"/>
     </row>
-    <row r="709" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -13779,7 +13961,7 @@
       <c r="P709" s="3"/>
       <c r="Q709" s="3"/>
     </row>
-    <row r="710" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -13798,7 +13980,7 @@
       <c r="P710" s="3"/>
       <c r="Q710" s="3"/>
     </row>
-    <row r="711" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -13817,7 +13999,7 @@
       <c r="P711" s="3"/>
       <c r="Q711" s="3"/>
     </row>
-    <row r="712" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -13836,7 +14018,7 @@
       <c r="P712" s="3"/>
       <c r="Q712" s="3"/>
     </row>
-    <row r="713" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -13855,7 +14037,7 @@
       <c r="P713" s="3"/>
       <c r="Q713" s="3"/>
     </row>
-    <row r="714" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -13874,7 +14056,7 @@
       <c r="P714" s="3"/>
       <c r="Q714" s="3"/>
     </row>
-    <row r="715" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -13893,7 +14075,7 @@
       <c r="P715" s="3"/>
       <c r="Q715" s="3"/>
     </row>
-    <row r="716" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -13912,7 +14094,7 @@
       <c r="P716" s="3"/>
       <c r="Q716" s="3"/>
     </row>
-    <row r="717" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -13931,7 +14113,7 @@
       <c r="P717" s="3"/>
       <c r="Q717" s="3"/>
     </row>
-    <row r="718" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -13950,7 +14132,7 @@
       <c r="P718" s="3"/>
       <c r="Q718" s="3"/>
     </row>
-    <row r="719" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -13969,7 +14151,7 @@
       <c r="P719" s="3"/>
       <c r="Q719" s="3"/>
     </row>
-    <row r="720" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -13988,7 +14170,7 @@
       <c r="P720" s="3"/>
       <c r="Q720" s="3"/>
     </row>
-    <row r="721" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -14007,7 +14189,7 @@
       <c r="P721" s="3"/>
       <c r="Q721" s="3"/>
     </row>
-    <row r="722" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -14026,7 +14208,7 @@
       <c r="P722" s="3"/>
       <c r="Q722" s="3"/>
     </row>
-    <row r="723" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -14045,7 +14227,7 @@
       <c r="P723" s="3"/>
       <c r="Q723" s="3"/>
     </row>
-    <row r="724" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -14064,7 +14246,7 @@
       <c r="P724" s="3"/>
       <c r="Q724" s="3"/>
     </row>
-    <row r="725" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -14083,7 +14265,7 @@
       <c r="P725" s="3"/>
       <c r="Q725" s="3"/>
     </row>
-    <row r="726" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -14102,7 +14284,7 @@
       <c r="P726" s="3"/>
       <c r="Q726" s="3"/>
     </row>
-    <row r="727" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -14121,7 +14303,7 @@
       <c r="P727" s="3"/>
       <c r="Q727" s="3"/>
     </row>
-    <row r="728" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -14140,7 +14322,7 @@
       <c r="P728" s="3"/>
       <c r="Q728" s="3"/>
     </row>
-    <row r="729" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -14159,7 +14341,7 @@
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
     </row>
-    <row r="730" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -14178,7 +14360,7 @@
       <c r="P730" s="3"/>
       <c r="Q730" s="3"/>
     </row>
-    <row r="731" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -14197,7 +14379,7 @@
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
     </row>
-    <row r="732" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -14216,7 +14398,7 @@
       <c r="P732" s="3"/>
       <c r="Q732" s="3"/>
     </row>
-    <row r="733" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -14235,7 +14417,7 @@
       <c r="P733" s="3"/>
       <c r="Q733" s="3"/>
     </row>
-    <row r="734" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -14254,7 +14436,7 @@
       <c r="P734" s="3"/>
       <c r="Q734" s="3"/>
     </row>
-    <row r="735" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -14273,7 +14455,7 @@
       <c r="P735" s="3"/>
       <c r="Q735" s="3"/>
     </row>
-    <row r="736" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -14292,7 +14474,7 @@
       <c r="P736" s="3"/>
       <c r="Q736" s="3"/>
     </row>
-    <row r="737" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -14311,7 +14493,7 @@
       <c r="P737" s="3"/>
       <c r="Q737" s="3"/>
     </row>
-    <row r="738" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -14330,7 +14512,7 @@
       <c r="P738" s="3"/>
       <c r="Q738" s="3"/>
     </row>
-    <row r="739" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -14349,7 +14531,7 @@
       <c r="P739" s="3"/>
       <c r="Q739" s="3"/>
     </row>
-    <row r="740" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -14368,7 +14550,7 @@
       <c r="P740" s="3"/>
       <c r="Q740" s="3"/>
     </row>
-    <row r="741" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -14387,7 +14569,7 @@
       <c r="P741" s="3"/>
       <c r="Q741" s="3"/>
     </row>
-    <row r="742" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -14406,7 +14588,7 @@
       <c r="P742" s="3"/>
       <c r="Q742" s="3"/>
     </row>
-    <row r="743" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -14425,7 +14607,7 @@
       <c r="P743" s="3"/>
       <c r="Q743" s="3"/>
     </row>
-    <row r="744" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -14444,7 +14626,7 @@
       <c r="P744" s="3"/>
       <c r="Q744" s="3"/>
     </row>
-    <row r="745" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -14463,7 +14645,7 @@
       <c r="P745" s="3"/>
       <c r="Q745" s="3"/>
     </row>
-    <row r="746" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -14482,7 +14664,7 @@
       <c r="P746" s="3"/>
       <c r="Q746" s="3"/>
     </row>
-    <row r="747" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -14501,7 +14683,7 @@
       <c r="P747" s="3"/>
       <c r="Q747" s="3"/>
     </row>
-    <row r="748" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -14520,7 +14702,7 @@
       <c r="P748" s="3"/>
       <c r="Q748" s="3"/>
     </row>
-    <row r="749" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -14539,7 +14721,7 @@
       <c r="P749" s="3"/>
       <c r="Q749" s="3"/>
     </row>
-    <row r="750" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -14558,7 +14740,7 @@
       <c r="P750" s="3"/>
       <c r="Q750" s="3"/>
     </row>
-    <row r="751" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -14577,7 +14759,7 @@
       <c r="P751" s="3"/>
       <c r="Q751" s="3"/>
     </row>
-    <row r="752" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -14596,7 +14778,7 @@
       <c r="P752" s="3"/>
       <c r="Q752" s="3"/>
     </row>
-    <row r="753" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -14615,7 +14797,7 @@
       <c r="P753" s="3"/>
       <c r="Q753" s="3"/>
     </row>
-    <row r="754" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -14634,7 +14816,7 @@
       <c r="P754" s="3"/>
       <c r="Q754" s="3"/>
     </row>
-    <row r="755" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -14653,7 +14835,7 @@
       <c r="P755" s="3"/>
       <c r="Q755" s="3"/>
     </row>
-    <row r="756" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -14672,7 +14854,7 @@
       <c r="P756" s="3"/>
       <c r="Q756" s="3"/>
     </row>
-    <row r="757" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -14691,7 +14873,7 @@
       <c r="P757" s="3"/>
       <c r="Q757" s="3"/>
     </row>
-    <row r="758" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -14710,7 +14892,7 @@
       <c r="P758" s="3"/>
       <c r="Q758" s="3"/>
     </row>
-    <row r="759" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -14729,7 +14911,7 @@
       <c r="P759" s="3"/>
       <c r="Q759" s="3"/>
     </row>
-    <row r="760" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -14748,7 +14930,7 @@
       <c r="P760" s="3"/>
       <c r="Q760" s="3"/>
     </row>
-    <row r="761" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -14767,7 +14949,7 @@
       <c r="P761" s="3"/>
       <c r="Q761" s="3"/>
     </row>
-    <row r="762" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -14786,7 +14968,7 @@
       <c r="P762" s="3"/>
       <c r="Q762" s="3"/>
     </row>
-    <row r="763" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -14805,7 +14987,7 @@
       <c r="P763" s="3"/>
       <c r="Q763" s="3"/>
     </row>
-    <row r="764" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -14824,7 +15006,7 @@
       <c r="P764" s="3"/>
       <c r="Q764" s="3"/>
     </row>
-    <row r="765" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -14843,7 +15025,7 @@
       <c r="P765" s="3"/>
       <c r="Q765" s="3"/>
     </row>
-    <row r="766" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -14862,7 +15044,7 @@
       <c r="P766" s="3"/>
       <c r="Q766" s="3"/>
     </row>
-    <row r="767" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -14881,7 +15063,7 @@
       <c r="P767" s="3"/>
       <c r="Q767" s="3"/>
     </row>
-    <row r="768" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -14900,7 +15082,7 @@
       <c r="P768" s="3"/>
       <c r="Q768" s="3"/>
     </row>
-    <row r="769" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -14919,7 +15101,7 @@
       <c r="P769" s="3"/>
       <c r="Q769" s="3"/>
     </row>
-    <row r="770" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -14938,7 +15120,7 @@
       <c r="P770" s="3"/>
       <c r="Q770" s="3"/>
     </row>
-    <row r="771" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -14957,7 +15139,7 @@
       <c r="P771" s="3"/>
       <c r="Q771" s="3"/>
     </row>
-    <row r="772" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -14976,7 +15158,7 @@
       <c r="P772" s="3"/>
       <c r="Q772" s="3"/>
     </row>
-    <row r="773" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -14995,7 +15177,7 @@
       <c r="P773" s="3"/>
       <c r="Q773" s="3"/>
     </row>
-    <row r="774" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -15014,7 +15196,7 @@
       <c r="P774" s="3"/>
       <c r="Q774" s="3"/>
     </row>
-    <row r="775" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -15033,7 +15215,7 @@
       <c r="P775" s="3"/>
       <c r="Q775" s="3"/>
     </row>
-    <row r="776" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -15052,7 +15234,7 @@
       <c r="P776" s="3"/>
       <c r="Q776" s="3"/>
     </row>
-    <row r="777" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -15071,7 +15253,7 @@
       <c r="P777" s="3"/>
       <c r="Q777" s="3"/>
     </row>
-    <row r="778" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -15090,7 +15272,7 @@
       <c r="P778" s="3"/>
       <c r="Q778" s="3"/>
     </row>
-    <row r="779" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -15109,7 +15291,7 @@
       <c r="P779" s="3"/>
       <c r="Q779" s="3"/>
     </row>
-    <row r="780" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -15128,7 +15310,7 @@
       <c r="P780" s="3"/>
       <c r="Q780" s="3"/>
     </row>
-    <row r="781" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -15147,7 +15329,7 @@
       <c r="P781" s="3"/>
       <c r="Q781" s="3"/>
     </row>
-    <row r="782" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -15166,7 +15348,7 @@
       <c r="P782" s="3"/>
       <c r="Q782" s="3"/>
     </row>
-    <row r="783" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -15185,7 +15367,7 @@
       <c r="P783" s="3"/>
       <c r="Q783" s="3"/>
     </row>
-    <row r="784" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -15204,7 +15386,7 @@
       <c r="P784" s="3"/>
       <c r="Q784" s="3"/>
     </row>
-    <row r="785" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -15223,7 +15405,7 @@
       <c r="P785" s="3"/>
       <c r="Q785" s="3"/>
     </row>
-    <row r="786" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -15242,7 +15424,7 @@
       <c r="P786" s="3"/>
       <c r="Q786" s="3"/>
     </row>
-    <row r="787" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -15261,7 +15443,7 @@
       <c r="P787" s="3"/>
       <c r="Q787" s="3"/>
     </row>
-    <row r="788" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -15280,7 +15462,7 @@
       <c r="P788" s="3"/>
       <c r="Q788" s="3"/>
     </row>
-    <row r="789" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -15299,7 +15481,7 @@
       <c r="P789" s="3"/>
       <c r="Q789" s="3"/>
     </row>
-    <row r="790" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -15318,7 +15500,7 @@
       <c r="P790" s="3"/>
       <c r="Q790" s="3"/>
     </row>
-    <row r="791" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -15337,7 +15519,7 @@
       <c r="P791" s="3"/>
       <c r="Q791" s="3"/>
     </row>
-    <row r="792" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -15356,7 +15538,7 @@
       <c r="P792" s="3"/>
       <c r="Q792" s="3"/>
     </row>
-    <row r="793" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -15375,7 +15557,7 @@
       <c r="P793" s="3"/>
       <c r="Q793" s="3"/>
     </row>
-    <row r="794" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -15394,7 +15576,7 @@
       <c r="P794" s="3"/>
       <c r="Q794" s="3"/>
     </row>
-    <row r="795" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -15413,7 +15595,7 @@
       <c r="P795" s="3"/>
       <c r="Q795" s="3"/>
     </row>
-    <row r="796" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -15432,7 +15614,7 @@
       <c r="P796" s="3"/>
       <c r="Q796" s="3"/>
     </row>
-    <row r="797" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -15451,7 +15633,7 @@
       <c r="P797" s="3"/>
       <c r="Q797" s="3"/>
     </row>
-    <row r="798" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -15470,7 +15652,7 @@
       <c r="P798" s="3"/>
       <c r="Q798" s="3"/>
     </row>
-    <row r="799" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -15489,7 +15671,7 @@
       <c r="P799" s="3"/>
       <c r="Q799" s="3"/>
     </row>
-    <row r="800" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -15508,7 +15690,7 @@
       <c r="P800" s="3"/>
       <c r="Q800" s="3"/>
     </row>
-    <row r="801" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -15527,7 +15709,7 @@
       <c r="P801" s="3"/>
       <c r="Q801" s="3"/>
     </row>
-    <row r="802" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -15546,7 +15728,7 @@
       <c r="P802" s="3"/>
       <c r="Q802" s="3"/>
     </row>
-    <row r="803" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -15565,7 +15747,7 @@
       <c r="P803" s="3"/>
       <c r="Q803" s="3"/>
     </row>
-    <row r="804" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -15584,7 +15766,7 @@
       <c r="P804" s="3"/>
       <c r="Q804" s="3"/>
     </row>
-    <row r="805" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -15603,7 +15785,7 @@
       <c r="P805" s="3"/>
       <c r="Q805" s="3"/>
     </row>
-    <row r="806" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -15622,7 +15804,7 @@
       <c r="P806" s="3"/>
       <c r="Q806" s="3"/>
     </row>
-    <row r="807" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -15641,7 +15823,7 @@
       <c r="P807" s="3"/>
       <c r="Q807" s="3"/>
     </row>
-    <row r="808" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -15660,7 +15842,7 @@
       <c r="P808" s="3"/>
       <c r="Q808" s="3"/>
     </row>
-    <row r="809" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -15679,7 +15861,7 @@
       <c r="P809" s="3"/>
       <c r="Q809" s="3"/>
     </row>
-    <row r="810" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -15698,7 +15880,7 @@
       <c r="P810" s="3"/>
       <c r="Q810" s="3"/>
     </row>
-    <row r="811" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -15717,7 +15899,7 @@
       <c r="P811" s="3"/>
       <c r="Q811" s="3"/>
     </row>
-    <row r="812" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -15736,7 +15918,7 @@
       <c r="P812" s="3"/>
       <c r="Q812" s="3"/>
     </row>
-    <row r="813" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -15755,7 +15937,7 @@
       <c r="P813" s="3"/>
       <c r="Q813" s="3"/>
     </row>
-    <row r="814" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -15774,7 +15956,7 @@
       <c r="P814" s="3"/>
       <c r="Q814" s="3"/>
     </row>
-    <row r="815" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -15793,7 +15975,7 @@
       <c r="P815" s="3"/>
       <c r="Q815" s="3"/>
     </row>
-    <row r="816" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -15812,7 +15994,7 @@
       <c r="P816" s="3"/>
       <c r="Q816" s="3"/>
     </row>
-    <row r="817" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -15831,7 +16013,7 @@
       <c r="P817" s="3"/>
       <c r="Q817" s="3"/>
     </row>
-    <row r="818" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -15850,7 +16032,7 @@
       <c r="P818" s="3"/>
       <c r="Q818" s="3"/>
     </row>
-    <row r="819" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -15869,7 +16051,7 @@
       <c r="P819" s="3"/>
       <c r="Q819" s="3"/>
     </row>
-    <row r="820" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -15888,7 +16070,7 @@
       <c r="P820" s="3"/>
       <c r="Q820" s="3"/>
     </row>
-    <row r="821" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -15907,7 +16089,7 @@
       <c r="P821" s="3"/>
       <c r="Q821" s="3"/>
     </row>
-    <row r="822" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -15926,7 +16108,7 @@
       <c r="P822" s="3"/>
       <c r="Q822" s="3"/>
     </row>
-    <row r="823" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -15945,7 +16127,7 @@
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
     </row>
-    <row r="824" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -15964,7 +16146,7 @@
       <c r="P824" s="3"/>
       <c r="Q824" s="3"/>
     </row>
-    <row r="825" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -15983,7 +16165,7 @@
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
     </row>
-    <row r="826" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -16002,7 +16184,7 @@
       <c r="P826" s="3"/>
       <c r="Q826" s="3"/>
     </row>
-    <row r="827" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -16021,7 +16203,7 @@
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
     </row>
-    <row r="828" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -16040,7 +16222,7 @@
       <c r="P828" s="3"/>
       <c r="Q828" s="3"/>
     </row>
-    <row r="829" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -16059,7 +16241,7 @@
       <c r="P829" s="3"/>
       <c r="Q829" s="3"/>
     </row>
-    <row r="830" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -16078,7 +16260,7 @@
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
     </row>
-    <row r="831" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -16097,7 +16279,7 @@
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
     </row>
-    <row r="832" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -16116,7 +16298,7 @@
       <c r="P832" s="3"/>
       <c r="Q832" s="3"/>
     </row>
-    <row r="833" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -16135,7 +16317,7 @@
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
     </row>
-    <row r="834" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -16154,7 +16336,7 @@
       <c r="P834" s="3"/>
       <c r="Q834" s="3"/>
     </row>
-    <row r="835" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -16173,7 +16355,7 @@
       <c r="P835" s="3"/>
       <c r="Q835" s="3"/>
     </row>
-    <row r="836" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -16192,7 +16374,7 @@
       <c r="P836" s="3"/>
       <c r="Q836" s="3"/>
     </row>
-    <row r="837" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -16211,7 +16393,7 @@
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
     </row>
-    <row r="838" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -16230,7 +16412,7 @@
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
     </row>
-    <row r="839" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -16249,7 +16431,7 @@
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
     </row>
-    <row r="840" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -16268,7 +16450,7 @@
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
     </row>
-    <row r="841" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -16287,7 +16469,7 @@
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
     </row>
-    <row r="842" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -16306,7 +16488,7 @@
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
     </row>
-    <row r="843" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -16325,7 +16507,7 @@
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
     </row>
-    <row r="844" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -16344,7 +16526,7 @@
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
     </row>
-    <row r="845" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -16363,7 +16545,7 @@
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
     </row>
-    <row r="846" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -16382,7 +16564,7 @@
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
     </row>
-    <row r="847" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -16401,7 +16583,7 @@
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
     </row>
-    <row r="848" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -16420,7 +16602,7 @@
       <c r="P848" s="3"/>
       <c r="Q848" s="3"/>
     </row>
-    <row r="849" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -16439,7 +16621,7 @@
       <c r="P849" s="3"/>
       <c r="Q849" s="3"/>
     </row>
-    <row r="850" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -16458,7 +16640,7 @@
       <c r="P850" s="3"/>
       <c r="Q850" s="3"/>
     </row>
-    <row r="851" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -16477,7 +16659,7 @@
       <c r="P851" s="3"/>
       <c r="Q851" s="3"/>
     </row>
-    <row r="852" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -16496,7 +16678,7 @@
       <c r="P852" s="3"/>
       <c r="Q852" s="3"/>
     </row>
-    <row r="853" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -16515,7 +16697,7 @@
       <c r="P853" s="3"/>
       <c r="Q853" s="3"/>
     </row>
-    <row r="854" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -16534,7 +16716,7 @@
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
     </row>
-    <row r="855" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -16553,7 +16735,7 @@
       <c r="P855" s="3"/>
       <c r="Q855" s="3"/>
     </row>
-    <row r="856" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -16572,51 +16754,45 @@
       <c r="P856" s="3"/>
       <c r="Q856" s="3"/>
     </row>
-    <row r="857" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A857" s="8"/>
-      <c r="B857" s="8"/>
-      <c r="C857" s="8"/>
-      <c r="D857" s="8"/>
-      <c r="E857" s="8"/>
-      <c r="F857" s="8"/>
-      <c r="G857" s="8"/>
-      <c r="H857" s="8"/>
-      <c r="I857" s="8"/>
-      <c r="J857" s="8"/>
-      <c r="K857" s="8"/>
-      <c r="L857" s="8"/>
-      <c r="M857" s="8"/>
-      <c r="N857" s="8"/>
-      <c r="O857" s="8"/>
-      <c r="P857" s="8"/>
-      <c r="Q857" s="8"/>
-    </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A858" s="8"/>
-      <c r="B858" s="8"/>
-      <c r="C858" s="8"/>
-      <c r="D858" s="8"/>
-      <c r="E858" s="8"/>
-      <c r="F858" s="8"/>
-      <c r="G858" s="8"/>
-      <c r="H858" s="8"/>
-      <c r="I858" s="8"/>
-      <c r="J858" s="8"/>
-      <c r="K858" s="8"/>
-      <c r="L858" s="8"/>
-      <c r="M858" s="8"/>
-      <c r="N858" s="8"/>
-      <c r="O858" s="8"/>
-      <c r="P858" s="8"/>
-      <c r="Q858" s="8"/>
+    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="16.5">
+      <c r="A857" s="7"/>
+      <c r="B857" s="7"/>
+      <c r="C857" s="7"/>
+      <c r="D857" s="7"/>
+      <c r="E857" s="7"/>
+      <c r="F857" s="7"/>
+      <c r="G857" s="7"/>
+      <c r="H857" s="7"/>
+      <c r="I857" s="7"/>
+      <c r="J857" s="7"/>
+      <c r="K857" s="7"/>
+      <c r="L857" s="7"/>
+      <c r="M857" s="7"/>
+      <c r="N857" s="7"/>
+      <c r="O857" s="7"/>
+      <c r="P857" s="7"/>
+      <c r="Q857" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
+      <c r="A858" s="7"/>
+      <c r="B858" s="7"/>
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+      <c r="E858" s="7"/>
+      <c r="F858" s="7"/>
+      <c r="G858" s="7"/>
+      <c r="H858" s="7"/>
+      <c r="I858" s="7"/>
+      <c r="J858" s="7"/>
+      <c r="K858" s="7"/>
+      <c r="L858" s="7"/>
+      <c r="M858" s="7"/>
+      <c r="N858" s="7"/>
+      <c r="O858" s="7"/>
+      <c r="P858" s="7"/>
+      <c r="Q858" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>